--- a/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
@@ -421,22 +421,22 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.991911494737579</v>
+        <v>0.9919114947375793</v>
       </c>
       <c r="D2">
-        <v>1.010838827854428</v>
+        <v>1.010838827854429</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9939222657898305</v>
+        <v>0.9939222657898311</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041015085385972</v>
+        <v>1.041015085385973</v>
       </c>
       <c r="J2">
         <v>1.01433685273417</v>
@@ -462,13 +462,13 @@
         <v>0.9987464305625752</v>
       </c>
       <c r="D3">
-        <v>1.01600407881818</v>
+        <v>1.016004078818181</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.001352367958545</v>
+        <v>1.001352367958546</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>1.019271327578362</v>
       </c>
       <c r="K3">
-        <v>1.026436199161678</v>
+        <v>1.026436199161679</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
@@ -500,7 +500,7 @@
         <v>1.003034515962302</v>
       </c>
       <c r="D4">
-        <v>1.019246149166249</v>
+        <v>1.01924614916625</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
@@ -515,7 +515,7 @@
         <v>1.04478279347082</v>
       </c>
       <c r="J4">
-        <v>1.022360915749934</v>
+        <v>1.022360915749933</v>
       </c>
       <c r="K4">
         <v>1.0291177094829</v>
@@ -541,10 +541,10 @@
         <v>1.020586332856688</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.007950635024065</v>
+        <v>1.007950635024064</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.045375323577841</v>
       </c>
       <c r="J5">
-        <v>1.023636280260072</v>
+        <v>1.023636280260071</v>
       </c>
       <c r="K5">
         <v>1.030223954188817</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
         <v>1.017731823354378</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005102570399466</v>
+        <v>1.005102570399468</v>
       </c>
       <c r="D6">
-        <v>1.020810052786961</v>
+        <v>1.020810052786962</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.008272985530048</v>
+        <v>1.008272985530049</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045474004301681</v>
+        <v>1.045474004301682</v>
       </c>
       <c r="J6">
-        <v>1.023849075862485</v>
+        <v>1.023849075862487</v>
       </c>
       <c r="K6">
-        <v>1.030408492041662</v>
+        <v>1.030408492041663</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.018013165033118</v>
+        <v>1.018013165033119</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003058314159083</v>
+        <v>1.003058314159082</v>
       </c>
       <c r="D7">
-        <v>1.01926414476724</v>
+        <v>1.019264144767239</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.006045949383724</v>
+        <v>1.006045949383723</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.044790765374596</v>
       </c>
       <c r="J7">
-        <v>1.022378047997183</v>
+        <v>1.022378047997182</v>
       </c>
       <c r="K7">
-        <v>1.029132572583366</v>
+        <v>1.029132572583364</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.016068971575419</v>
+        <v>1.016068971575418</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9942503500410848</v>
+        <v>0.9942503500410841</v>
       </c>
       <c r="D8">
-        <v>1.012605950817311</v>
+        <v>1.01260595081731</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9964634862781084</v>
+        <v>0.9964634862781077</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1.016026662314646</v>
       </c>
       <c r="K8">
-        <v>1.023617831572558</v>
+        <v>1.023617831572557</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -687,34 +687,34 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9776124361897698</v>
+        <v>0.9776124361897713</v>
       </c>
       <c r="D9">
-        <v>1.00004617320068</v>
+        <v>1.000046173200682</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9784120666192945</v>
+        <v>0.9784120666192959</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036066714889468</v>
+        <v>1.036066714889469</v>
       </c>
       <c r="J9">
-        <v>1.003981303940668</v>
+        <v>1.00398130394067</v>
       </c>
       <c r="K9">
-        <v>1.013138501321074</v>
+        <v>1.013138501321075</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834082</v>
       </c>
       <c r="M9">
-        <v>0.9918653806458185</v>
+        <v>0.9918653806458202</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9656330349344142</v>
+        <v>0.9656330349344131</v>
       </c>
       <c r="D10">
-        <v>0.9910227457118284</v>
+        <v>0.9910227457118272</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>0.9654474588459262</v>
+        <v>0.9654474588459253</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03184882825539</v>
+        <v>1.031848828255389</v>
       </c>
       <c r="J10">
-        <v>0.9952797986316003</v>
+        <v>0.9952797986315992</v>
       </c>
       <c r="K10">
-        <v>1.005556001316856</v>
+        <v>1.005556001316855</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9804699106294525</v>
+        <v>0.9804699106294517</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9601994797250395</v>
+        <v>0.9601994797250399</v>
       </c>
       <c r="D11">
-        <v>0.9869366299481258</v>
+        <v>0.986936629948126</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9595744367160827</v>
+        <v>0.959574436716083</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>1.02991784872781</v>
       </c>
       <c r="J11">
-        <v>0.9913271447439557</v>
+        <v>0.991327144743956</v>
       </c>
       <c r="K11">
         <v>1.002109180009817</v>
@@ -790,7 +790,7 @@
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9753012259274364</v>
+        <v>0.9753012259274367</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9581406494006013</v>
+        <v>0.9581406494006007</v>
       </c>
       <c r="D12">
-        <v>0.985389554129443</v>
+        <v>0.9853895541294426</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9573501657520007</v>
+        <v>0.9573501657519998</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029183604474843</v>
       </c>
       <c r="J12">
-        <v>0.989828653201578</v>
+        <v>0.9898286532015774</v>
       </c>
       <c r="K12">
         <v>1.000802124375566</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>0.9733427716581682</v>
+        <v>0.9733427716581674</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9585841734111321</v>
+        <v>0.958584173411132</v>
       </c>
       <c r="D13">
         <v>0.9857227760611877</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.9578292818076072</v>
+        <v>0.9578292818076073</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029341893658285</v>
+        <v>1.029341893658284</v>
       </c>
       <c r="J13">
-        <v>0.9901515001749703</v>
+        <v>0.9901515001749704</v>
       </c>
       <c r="K13">
-        <v>1.001083741073745</v>
+        <v>1.001083741073744</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9737646713159802</v>
+        <v>0.9737646713159801</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9600301459263164</v>
+        <v>0.9600301459263154</v>
       </c>
       <c r="D14">
-        <v>0.9868093613057265</v>
+        <v>0.9868093613057254</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9593914741881031</v>
+        <v>0.959391474188102</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029857510495352</v>
+        <v>1.029857510495351</v>
       </c>
       <c r="J14">
-        <v>0.9912039129045364</v>
+        <v>0.9912039129045354</v>
       </c>
       <c r="K14">
-        <v>1.002001697780307</v>
+        <v>1.002001697780306</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9751401474659723</v>
+        <v>0.9751401474659711</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9609155676798156</v>
+        <v>0.9609155676798143</v>
       </c>
       <c r="D15">
-        <v>0.9874748802508154</v>
+        <v>0.9874748802508145</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9603482021556597</v>
+        <v>0.9603482021556584</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030172906323647</v>
+        <v>1.030172906323646</v>
       </c>
       <c r="J15">
-        <v>0.9918482427067781</v>
+        <v>0.9918482427067771</v>
       </c>
       <c r="K15">
-        <v>1.002563666033073</v>
+        <v>1.002563666033072</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9759824038982867</v>
+        <v>0.9759824038982854</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9659881586250575</v>
+        <v>0.9659881586250588</v>
       </c>
       <c r="D16">
-        <v>0.9912899579140008</v>
+        <v>0.9912899579140018</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9658314552643409</v>
+        <v>0.9658314552643422</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.031974671863747</v>
       </c>
       <c r="J16">
-        <v>0.9955380204174628</v>
+        <v>0.995538020417464</v>
       </c>
       <c r="K16">
-        <v>1.005781129959926</v>
+        <v>1.005781129959927</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9808077243116949</v>
+        <v>0.980807724311696</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9691017331422574</v>
+        <v>0.9691017331422555</v>
       </c>
       <c r="D17">
-        <v>0.9936335358778007</v>
+        <v>0.9936335358777989</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9691990039570467</v>
+        <v>0.9691990039570452</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033076015342011</v>
+        <v>1.03307601534201</v>
       </c>
       <c r="J17">
-        <v>0.9978013485261561</v>
+        <v>0.9978013485261542</v>
       </c>
       <c r="K17">
-        <v>1.007754120753847</v>
+        <v>1.007754120753845</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9837695349737722</v>
+        <v>0.9837695349737707</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.970894318064633</v>
+        <v>0.9708943180646323</v>
       </c>
       <c r="D18">
-        <v>0.9949834228243273</v>
+        <v>0.9949834228243267</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9711385065169381</v>
+        <v>0.9711385065169378</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.033708411877263</v>
       </c>
       <c r="J18">
-        <v>0.9991038621363615</v>
+        <v>0.999103862136361</v>
       </c>
       <c r="K18">
-        <v>1.008889314439856</v>
+        <v>1.008889314439855</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.9854747451041377</v>
+        <v>0.9854747451041376</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.971501655639268</v>
+        <v>0.9715016556392686</v>
       </c>
       <c r="D19">
-        <v>0.9954408706864127</v>
+        <v>0.9954408706864135</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="F19">
-        <v>0.9717957396513229</v>
+        <v>0.9717957396513239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03392238293881</v>
+        <v>1.033922382938811</v>
       </c>
       <c r="J19">
-        <v>0.9995450638036572</v>
+        <v>0.9995450638036578</v>
       </c>
       <c r="K19">
         <v>1.009273798667438</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
       <c r="M19">
-        <v>0.9860524793696003</v>
+        <v>0.9860524793696013</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,22 +1105,22 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9687701319968767</v>
+        <v>0.9687701319968766</v>
       </c>
       <c r="D20">
-        <v>0.9933838756208021</v>
+        <v>0.9933838756208019</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9688402819284578</v>
+        <v>0.9688402819284579</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032958894495015</v>
+        <v>1.032958894495014</v>
       </c>
       <c r="J20">
         <v>0.9975603574109838</v>
@@ -1129,10 +1129,10 @@
         <v>1.007544067860768</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.983454096806945</v>
+        <v>0.9834540968069448</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9596054937796125</v>
+        <v>0.9596054937796135</v>
       </c>
       <c r="D21">
-        <v>0.9864902192829399</v>
+        <v>0.9864902192829409</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148893</v>
       </c>
       <c r="F21">
-        <v>0.958932661371969</v>
+        <v>0.9589326613719696</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.029706154365904</v>
       </c>
       <c r="J21">
-        <v>0.9908948620212139</v>
+        <v>0.9908948620212148</v>
       </c>
       <c r="K21">
-        <v>1.001732139893259</v>
+        <v>1.00173213989326</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981063</v>
       </c>
       <c r="M21">
-        <v>0.9747361981637446</v>
+        <v>0.9747361981637455</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9536064941693841</v>
+        <v>0.9536064941693838</v>
       </c>
       <c r="D22">
-        <v>0.9819848717799644</v>
+        <v>0.9819848717799641</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9524536085326099</v>
+        <v>0.9524536085326095</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027561952035533</v>
+        <v>1.027561952035532</v>
       </c>
       <c r="J22">
-        <v>0.9865271822277993</v>
+        <v>0.986527182227799</v>
       </c>
       <c r="K22">
-        <v>0.997921863564577</v>
+        <v>0.9979218635645769</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9690297130854706</v>
+        <v>0.9690297130854703</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9568104410325234</v>
+        <v>0.9568104410325229</v>
       </c>
       <c r="D23">
-        <v>0.9843903527317286</v>
+        <v>0.9843903527317287</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9559133655478625</v>
+        <v>0.9559133655478621</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>1.028708497782846</v>
       </c>
       <c r="J23">
-        <v>0.9888602687834986</v>
+        <v>0.9888602687834984</v>
       </c>
       <c r="K23">
         <v>0.9999573657593676</v>
@@ -1246,7 +1246,7 @@
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9720774215671687</v>
+        <v>0.9720774215671684</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.968920040672347</v>
+        <v>0.9689200406723454</v>
       </c>
       <c r="D24">
-        <v>0.993496738954371</v>
+        <v>0.9934967389543695</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011822</v>
       </c>
       <c r="F24">
-        <v>0.969002449117656</v>
+        <v>0.9690024491176544</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033011847168009</v>
       </c>
       <c r="J24">
-        <v>0.997669305270969</v>
+        <v>0.9976693052709675</v>
       </c>
       <c r="K24">
-        <v>1.007639029825688</v>
+        <v>1.007639029825686</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442542</v>
       </c>
       <c r="M24">
-        <v>0.9835966985988487</v>
+        <v>0.9835966985988471</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820592015526409</v>
+        <v>0.9820592015526424</v>
       </c>
       <c r="D25">
-        <v>1.003400240721684</v>
+        <v>1.003400240721685</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="F25">
-        <v>0.9832309964343904</v>
+        <v>0.9832309964343916</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037616651072301</v>
+        <v>1.037616651072302</v>
       </c>
       <c r="J25">
-        <v>1.00720580636242</v>
+        <v>1.007205806362421</v>
       </c>
       <c r="K25">
-        <v>1.015946000659</v>
+        <v>1.015946000659001</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9598754494005832</v>
       </c>
       <c r="M25">
-        <v>0.9960953297197652</v>
+        <v>0.9960953297197666</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
@@ -421,22 +421,22 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9919114947375793</v>
+        <v>0.991911494737579</v>
       </c>
       <c r="D2">
-        <v>1.010838827854429</v>
+        <v>1.010838827854428</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9939222657898311</v>
+        <v>0.9939222657898305</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041015085385973</v>
+        <v>1.041015085385972</v>
       </c>
       <c r="J2">
         <v>1.01433685273417</v>
@@ -462,13 +462,13 @@
         <v>0.9987464305625752</v>
       </c>
       <c r="D3">
-        <v>1.016004078818181</v>
+        <v>1.01600407881818</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.001352367958546</v>
+        <v>1.001352367958545</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>1.019271327578362</v>
       </c>
       <c r="K3">
-        <v>1.026436199161679</v>
+        <v>1.026436199161678</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
@@ -500,7 +500,7 @@
         <v>1.003034515962302</v>
       </c>
       <c r="D4">
-        <v>1.01924614916625</v>
+        <v>1.019246149166249</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
@@ -515,7 +515,7 @@
         <v>1.04478279347082</v>
       </c>
       <c r="J4">
-        <v>1.022360915749933</v>
+        <v>1.022360915749934</v>
       </c>
       <c r="K4">
         <v>1.0291177094829</v>
@@ -541,10 +541,10 @@
         <v>1.020586332856688</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.007950635024064</v>
+        <v>1.007950635024065</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.045375323577841</v>
       </c>
       <c r="J5">
-        <v>1.023636280260071</v>
+        <v>1.023636280260072</v>
       </c>
       <c r="K5">
         <v>1.030223954188817</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
         <v>1.017731823354378</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005102570399468</v>
+        <v>1.005102570399466</v>
       </c>
       <c r="D6">
-        <v>1.020810052786962</v>
+        <v>1.020810052786961</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.008272985530049</v>
+        <v>1.008272985530048</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045474004301682</v>
+        <v>1.045474004301681</v>
       </c>
       <c r="J6">
-        <v>1.023849075862487</v>
+        <v>1.023849075862485</v>
       </c>
       <c r="K6">
-        <v>1.030408492041663</v>
+        <v>1.030408492041662</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.018013165033119</v>
+        <v>1.018013165033118</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003058314159082</v>
+        <v>1.003058314159083</v>
       </c>
       <c r="D7">
-        <v>1.019264144767239</v>
+        <v>1.01926414476724</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.006045949383723</v>
+        <v>1.006045949383724</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.044790765374596</v>
       </c>
       <c r="J7">
-        <v>1.022378047997182</v>
+        <v>1.022378047997183</v>
       </c>
       <c r="K7">
-        <v>1.029132572583364</v>
+        <v>1.029132572583366</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.016068971575418</v>
+        <v>1.016068971575419</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9942503500410841</v>
+        <v>0.9942503500410848</v>
       </c>
       <c r="D8">
-        <v>1.01260595081731</v>
+        <v>1.012605950817311</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9964634862781077</v>
+        <v>0.9964634862781084</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1.016026662314646</v>
       </c>
       <c r="K8">
-        <v>1.023617831572557</v>
+        <v>1.023617831572558</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -687,34 +687,34 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9776124361897713</v>
+        <v>0.9776124361897698</v>
       </c>
       <c r="D9">
-        <v>1.000046173200682</v>
+        <v>1.00004617320068</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9784120666192959</v>
+        <v>0.9784120666192945</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036066714889469</v>
+        <v>1.036066714889468</v>
       </c>
       <c r="J9">
-        <v>1.00398130394067</v>
+        <v>1.003981303940668</v>
       </c>
       <c r="K9">
-        <v>1.013138501321075</v>
+        <v>1.013138501321074</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834082</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9918653806458202</v>
+        <v>0.9918653806458185</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9656330349344131</v>
+        <v>0.9656330349344142</v>
       </c>
       <c r="D10">
-        <v>0.9910227457118272</v>
+        <v>0.9910227457118284</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9654474588459253</v>
+        <v>0.9654474588459262</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031848828255389</v>
+        <v>1.03184882825539</v>
       </c>
       <c r="J10">
-        <v>0.9952797986315992</v>
+        <v>0.9952797986316003</v>
       </c>
       <c r="K10">
-        <v>1.005556001316855</v>
+        <v>1.005556001316856</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9804699106294517</v>
+        <v>0.9804699106294525</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9601994797250399</v>
+        <v>0.9601994797250395</v>
       </c>
       <c r="D11">
-        <v>0.986936629948126</v>
+        <v>0.9869366299481258</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.959574436716083</v>
+        <v>0.9595744367160827</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>1.02991784872781</v>
       </c>
       <c r="J11">
-        <v>0.991327144743956</v>
+        <v>0.9913271447439557</v>
       </c>
       <c r="K11">
         <v>1.002109180009817</v>
@@ -790,7 +790,7 @@
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9753012259274367</v>
+        <v>0.9753012259274364</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9581406494006007</v>
+        <v>0.9581406494006013</v>
       </c>
       <c r="D12">
-        <v>0.9853895541294426</v>
+        <v>0.985389554129443</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9573501657519998</v>
+        <v>0.9573501657520007</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029183604474843</v>
       </c>
       <c r="J12">
-        <v>0.9898286532015774</v>
+        <v>0.989828653201578</v>
       </c>
       <c r="K12">
         <v>1.000802124375566</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9733427716581674</v>
+        <v>0.9733427716581682</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.958584173411132</v>
+        <v>0.9585841734111321</v>
       </c>
       <c r="D13">
         <v>0.9857227760611877</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9578292818076073</v>
+        <v>0.9578292818076072</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029341893658284</v>
+        <v>1.029341893658285</v>
       </c>
       <c r="J13">
-        <v>0.9901515001749704</v>
+        <v>0.9901515001749703</v>
       </c>
       <c r="K13">
-        <v>1.001083741073744</v>
+        <v>1.001083741073745</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9737646713159801</v>
+        <v>0.9737646713159802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9600301459263154</v>
+        <v>0.9600301459263164</v>
       </c>
       <c r="D14">
-        <v>0.9868093613057254</v>
+        <v>0.9868093613057265</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.959391474188102</v>
+        <v>0.9593914741881031</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029857510495351</v>
+        <v>1.029857510495352</v>
       </c>
       <c r="J14">
-        <v>0.9912039129045354</v>
+        <v>0.9912039129045364</v>
       </c>
       <c r="K14">
-        <v>1.002001697780306</v>
+        <v>1.002001697780307</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9751401474659711</v>
+        <v>0.9751401474659723</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9609155676798143</v>
+        <v>0.9609155676798156</v>
       </c>
       <c r="D15">
-        <v>0.9874748802508145</v>
+        <v>0.9874748802508154</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9603482021556584</v>
+        <v>0.9603482021556597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030172906323646</v>
+        <v>1.030172906323647</v>
       </c>
       <c r="J15">
-        <v>0.9918482427067771</v>
+        <v>0.9918482427067781</v>
       </c>
       <c r="K15">
-        <v>1.002563666033072</v>
+        <v>1.002563666033073</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9759824038982854</v>
+        <v>0.9759824038982867</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9659881586250588</v>
+        <v>0.9659881586250575</v>
       </c>
       <c r="D16">
-        <v>0.9912899579140018</v>
+        <v>0.9912899579140008</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9658314552643422</v>
+        <v>0.9658314552643409</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.031974671863747</v>
       </c>
       <c r="J16">
-        <v>0.995538020417464</v>
+        <v>0.9955380204174628</v>
       </c>
       <c r="K16">
-        <v>1.005781129959927</v>
+        <v>1.005781129959926</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.980807724311696</v>
+        <v>0.9808077243116949</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9691017331422555</v>
+        <v>0.9691017331422574</v>
       </c>
       <c r="D17">
-        <v>0.9936335358777989</v>
+        <v>0.9936335358778007</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9691990039570452</v>
+        <v>0.9691990039570467</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03307601534201</v>
+        <v>1.033076015342011</v>
       </c>
       <c r="J17">
-        <v>0.9978013485261542</v>
+        <v>0.9978013485261561</v>
       </c>
       <c r="K17">
-        <v>1.007754120753845</v>
+        <v>1.007754120753847</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9837695349737707</v>
+        <v>0.9837695349737722</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9708943180646323</v>
+        <v>0.970894318064633</v>
       </c>
       <c r="D18">
-        <v>0.9949834228243267</v>
+        <v>0.9949834228243273</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9711385065169378</v>
+        <v>0.9711385065169381</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.033708411877263</v>
       </c>
       <c r="J18">
-        <v>0.999103862136361</v>
+        <v>0.9991038621363615</v>
       </c>
       <c r="K18">
-        <v>1.008889314439855</v>
+        <v>1.008889314439856</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9854747451041376</v>
+        <v>0.9854747451041377</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9715016556392686</v>
+        <v>0.971501655639268</v>
       </c>
       <c r="D19">
-        <v>0.9954408706864135</v>
+        <v>0.9954408706864127</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9717957396513239</v>
+        <v>0.9717957396513229</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033922382938811</v>
+        <v>1.03392238293881</v>
       </c>
       <c r="J19">
-        <v>0.9995450638036578</v>
+        <v>0.9995450638036572</v>
       </c>
       <c r="K19">
         <v>1.009273798667438</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9860524793696013</v>
+        <v>0.9860524793696003</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,22 +1105,22 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9687701319968766</v>
+        <v>0.9687701319968767</v>
       </c>
       <c r="D20">
-        <v>0.9933838756208019</v>
+        <v>0.9933838756208021</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9688402819284579</v>
+        <v>0.9688402819284578</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032958894495014</v>
+        <v>1.032958894495015</v>
       </c>
       <c r="J20">
         <v>0.9975603574109838</v>
@@ -1129,10 +1129,10 @@
         <v>1.007544067860768</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9834540968069448</v>
+        <v>0.983454096806945</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9596054937796135</v>
+        <v>0.9596054937796125</v>
       </c>
       <c r="D21">
-        <v>0.9864902192829409</v>
+        <v>0.9864902192829399</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148893</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9589326613719696</v>
+        <v>0.958932661371969</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.029706154365904</v>
       </c>
       <c r="J21">
-        <v>0.9908948620212148</v>
+        <v>0.9908948620212139</v>
       </c>
       <c r="K21">
-        <v>1.00173213989326</v>
+        <v>1.001732139893259</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981063</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9747361981637455</v>
+        <v>0.9747361981637446</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9536064941693838</v>
+        <v>0.9536064941693841</v>
       </c>
       <c r="D22">
-        <v>0.9819848717799641</v>
+        <v>0.9819848717799644</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9524536085326095</v>
+        <v>0.9524536085326099</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027561952035532</v>
+        <v>1.027561952035533</v>
       </c>
       <c r="J22">
-        <v>0.986527182227799</v>
+        <v>0.9865271822277993</v>
       </c>
       <c r="K22">
-        <v>0.9979218635645769</v>
+        <v>0.997921863564577</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9690297130854703</v>
+        <v>0.9690297130854706</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9568104410325229</v>
+        <v>0.9568104410325234</v>
       </c>
       <c r="D23">
-        <v>0.9843903527317287</v>
+        <v>0.9843903527317286</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9559133655478621</v>
+        <v>0.9559133655478625</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>1.028708497782846</v>
       </c>
       <c r="J23">
-        <v>0.9888602687834984</v>
+        <v>0.9888602687834986</v>
       </c>
       <c r="K23">
         <v>0.9999573657593676</v>
@@ -1246,7 +1246,7 @@
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9720774215671684</v>
+        <v>0.9720774215671687</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9689200406723454</v>
+        <v>0.968920040672347</v>
       </c>
       <c r="D24">
-        <v>0.9934967389543695</v>
+        <v>0.993496738954371</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011822</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9690024491176544</v>
+        <v>0.969002449117656</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033011847168009</v>
       </c>
       <c r="J24">
-        <v>0.9976693052709675</v>
+        <v>0.997669305270969</v>
       </c>
       <c r="K24">
-        <v>1.007639029825686</v>
+        <v>1.007639029825688</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9835966985988471</v>
+        <v>0.9835966985988487</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820592015526424</v>
+        <v>0.9820592015526409</v>
       </c>
       <c r="D25">
-        <v>1.003400240721685</v>
+        <v>1.003400240721684</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9832309964343916</v>
+        <v>0.9832309964343904</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037616651072302</v>
+        <v>1.037616651072301</v>
       </c>
       <c r="J25">
-        <v>1.007205806362421</v>
+        <v>1.00720580636242</v>
       </c>
       <c r="K25">
-        <v>1.015946000659001</v>
+        <v>1.015946000659</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9960953297197666</v>
+        <v>0.9960953297197652</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.991911494737579</v>
+        <v>0.9919182965354719</v>
       </c>
       <c r="D2">
-        <v>1.010838827854428</v>
+        <v>1.010844546270458</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9939222657898305</v>
+        <v>0.9939288008422145</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041015085385972</v>
+        <v>1.041018281869365</v>
       </c>
       <c r="J2">
-        <v>1.01433685273417</v>
+        <v>1.014343446491705</v>
       </c>
       <c r="K2">
-        <v>1.022149197934684</v>
+        <v>1.022154838819787</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.00546692757591</v>
+        <v>1.005473370172487</v>
+      </c>
+      <c r="N2">
+        <v>1.011681960629213</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9987464305625752</v>
+        <v>0.998749154097007</v>
       </c>
       <c r="D3">
-        <v>1.01600407881818</v>
+        <v>1.016006574089391</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.001352367958545</v>
+        <v>1.001355087262977</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04333988462882</v>
+        <v>1.043341268108477</v>
       </c>
       <c r="J3">
-        <v>1.019271327578362</v>
+        <v>1.019273976612655</v>
       </c>
       <c r="K3">
-        <v>1.026436199161678</v>
+        <v>1.026438663745032</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.011967974180074</v>
+        <v>1.011970658807927</v>
+      </c>
+      <c r="N3">
+        <v>1.015065252318885</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003034515962302</v>
+        <v>1.003034726469309</v>
       </c>
       <c r="D4">
-        <v>1.019246149166249</v>
+        <v>1.019246654423362</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.006020030414318</v>
+        <v>1.006020404326804</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04478279347082</v>
+        <v>1.044783055147534</v>
       </c>
       <c r="J4">
-        <v>1.022360915749934</v>
+        <v>1.022361120916077</v>
       </c>
       <c r="K4">
-        <v>1.0291177094829</v>
+        <v>1.029118208923194</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.016046337928966</v>
+        <v>1.01604670739536</v>
+      </c>
+      <c r="N4">
+        <v>1.017182503490048</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004806745029436</v>
+        <v>1.004805926622279</v>
       </c>
       <c r="D5">
-        <v>1.020586332856688</v>
+        <v>1.020586022515817</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.007950635024065</v>
+        <v>1.007950049952891</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045375323577841</v>
+        <v>1.045375124928979</v>
       </c>
       <c r="J5">
-        <v>1.023636280260072</v>
+        <v>1.023635481954721</v>
       </c>
       <c r="K5">
-        <v>1.030223954188817</v>
+        <v>1.030223647320296</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.017731823354378</v>
+        <v>1.017731245033715</v>
+      </c>
+      <c r="N5">
+        <v>1.018056218013437</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005102570399466</v>
+        <v>1.005101580779945</v>
       </c>
       <c r="D6">
-        <v>1.020810052786961</v>
+        <v>1.020809606684522</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.008272985530048</v>
+        <v>1.008272240956118</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045474004301681</v>
+        <v>1.045473728996331</v>
       </c>
       <c r="J6">
-        <v>1.023849075862485</v>
+        <v>1.023848110416991</v>
       </c>
       <c r="K6">
-        <v>1.030408492041662</v>
+        <v>1.030408050906503</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.018013165033118</v>
+        <v>1.018012429006313</v>
+      </c>
+      <c r="N6">
+        <v>1.018201981557056</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003058314159083</v>
+        <v>1.00305851081257</v>
       </c>
       <c r="D7">
-        <v>1.01926414476724</v>
+        <v>1.019264639046088</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.006045949383724</v>
+        <v>1.006046310379249</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044790765374596</v>
+        <v>1.044791020857344</v>
       </c>
       <c r="J7">
-        <v>1.022378047997183</v>
+        <v>1.022378239663435</v>
       </c>
       <c r="K7">
-        <v>1.029132572583366</v>
+        <v>1.029133061173935</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.016068971575419</v>
+        <v>1.016069328280157</v>
+      </c>
+      <c r="N7">
+        <v>1.017194241386769</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9942503500410848</v>
+        <v>0.9942557458598178</v>
       </c>
       <c r="D8">
-        <v>1.012605950817311</v>
+        <v>1.012610558968307</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9964634862781084</v>
+        <v>0.9964687045233419</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041813869172198</v>
+        <v>1.041816441670286</v>
       </c>
       <c r="J8">
-        <v>1.016026662314646</v>
+        <v>1.016031899116915</v>
       </c>
       <c r="K8">
-        <v>1.023617831572558</v>
+        <v>1.023622379236699</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.007691575953729</v>
+        <v>1.007696722881842</v>
+      </c>
+      <c r="N8">
+        <v>1.012840795729244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9776124361897698</v>
+        <v>0.9776280915672941</v>
       </c>
       <c r="D9">
-        <v>1.00004617320068</v>
+        <v>1.000058859679223</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9784120666192945</v>
+        <v>0.9784269257352327</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036066714889468</v>
+        <v>1.036073815549763</v>
       </c>
       <c r="J9">
-        <v>1.003981303940668</v>
+        <v>1.003996370210203</v>
       </c>
       <c r="K9">
-        <v>1.013138501321074</v>
+        <v>1.013150981998114</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9918653806458185</v>
+        <v>0.9918799847423874</v>
+      </c>
+      <c r="N9">
+        <v>1.004575968509766</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9656330349344142</v>
+        <v>0.9656564907137946</v>
       </c>
       <c r="D10">
-        <v>0.9910227457118284</v>
+        <v>0.991041535780428</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9654474588459262</v>
+        <v>0.9654696972636898</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03184882825539</v>
+        <v>1.031859333142417</v>
       </c>
       <c r="J10">
-        <v>0.9952797986316003</v>
+        <v>0.995302226459178</v>
       </c>
       <c r="K10">
-        <v>1.005556001316856</v>
+        <v>1.005574444073739</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9804699106294525</v>
+        <v>0.980491708884963</v>
+      </c>
+      <c r="N10">
+        <v>0.9986003936138369</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9601994797250395</v>
+        <v>0.9602266038562924</v>
       </c>
       <c r="D11">
-        <v>0.9869366299481258</v>
+        <v>0.98695827824987</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9595744367160827</v>
+        <v>0.9596001600141998</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02991784872781</v>
+        <v>1.029929943193731</v>
       </c>
       <c r="J11">
-        <v>0.9913271447439557</v>
+        <v>0.9913530015220537</v>
       </c>
       <c r="K11">
-        <v>1.002109180009817</v>
+        <v>1.00213040576782</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9753012259274364</v>
+        <v>0.9753264085448341</v>
+      </c>
+      <c r="N11">
+        <v>0.995884961268547</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9581406494006013</v>
+        <v>0.9581691864056698</v>
       </c>
       <c r="D12">
-        <v>0.985389554129443</v>
+        <v>0.9854123011616656</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9573501657520007</v>
+        <v>0.9573772337257725</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029183604474843</v>
+        <v>1.029196309252113</v>
       </c>
       <c r="J12">
-        <v>0.989828653201578</v>
+        <v>0.9898558250731682</v>
       </c>
       <c r="K12">
-        <v>1.000802124375566</v>
+        <v>1.000824418466675</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9733427716581682</v>
+        <v>0.9733692579596833</v>
+      </c>
+      <c r="N12">
+        <v>0.994855375542788</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9585841734111321</v>
+        <v>0.9586124049547116</v>
       </c>
       <c r="D13">
-        <v>0.9857227760611877</v>
+        <v>0.9857452856501582</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9578292818076072</v>
+        <v>0.9578560589483845</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029341893658285</v>
+        <v>1.02935446657708</v>
       </c>
       <c r="J13">
-        <v>0.9901515001749703</v>
+        <v>0.9901783879864687</v>
       </c>
       <c r="K13">
-        <v>1.001083741073745</v>
+        <v>1.001105804359405</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9737646713159802</v>
+        <v>0.9737908757537221</v>
+      </c>
+      <c r="N13">
+        <v>0.9950772036143672</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9600301459263164</v>
+        <v>0.9600573857776976</v>
       </c>
       <c r="D14">
-        <v>0.9868093613057265</v>
+        <v>0.9868310996426658</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9593914741881031</v>
+        <v>0.9594173075691962</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029857510495352</v>
+        <v>1.029869654988252</v>
       </c>
       <c r="J14">
-        <v>0.9912039129045364</v>
+        <v>0.9912298775102771</v>
       </c>
       <c r="K14">
-        <v>1.002001697780307</v>
+        <v>1.002023011113191</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9751401474659723</v>
+        <v>0.975165436856445</v>
+      </c>
+      <c r="N14">
+        <v>0.9958002936404179</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9609155676798156</v>
+        <v>0.9609422033989075</v>
       </c>
       <c r="D15">
-        <v>0.9874748802508154</v>
+        <v>0.9874961484594814</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9603482021556597</v>
+        <v>0.9603734609352146</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030172906323647</v>
+        <v>1.030184789565324</v>
       </c>
       <c r="J15">
-        <v>0.9918482427067781</v>
+        <v>0.9918736441552968</v>
       </c>
       <c r="K15">
-        <v>1.002563666033073</v>
+        <v>1.002584522024019</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9759824038982867</v>
+        <v>0.9760071358735496</v>
+      </c>
+      <c r="N15">
+        <v>0.996242981189664</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9659881586250575</v>
+        <v>0.9660113776096604</v>
       </c>
       <c r="D16">
-        <v>0.9912899579140008</v>
+        <v>0.9913085632104246</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9658314552643409</v>
+        <v>0.965853469049258</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031974671863747</v>
+        <v>1.031985073894162</v>
       </c>
       <c r="J16">
-        <v>0.9955380204174628</v>
+        <v>0.99556022618221</v>
       </c>
       <c r="K16">
-        <v>1.005781129959926</v>
+        <v>1.005799392614601</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9808077243116949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9808293041285855</v>
+      </c>
+      <c r="N16">
+        <v>0.9987777694226972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9691017331422574</v>
+        <v>0.9691228910286871</v>
       </c>
       <c r="D17">
-        <v>0.9936335358778007</v>
+        <v>0.9936505315157079</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9691990039570467</v>
+        <v>0.9692190641411613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033076015342011</v>
+        <v>1.03308552081606</v>
       </c>
       <c r="J17">
-        <v>0.9978013485261561</v>
+        <v>0.9978216177074004</v>
       </c>
       <c r="K17">
-        <v>1.007754120753847</v>
+        <v>1.007770813425488</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9837695349737722</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9837892135922941</v>
+      </c>
+      <c r="N17">
+        <v>1.000332363923921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.970894318064633</v>
+        <v>0.9709143012925735</v>
       </c>
       <c r="D18">
-        <v>0.9949834228243273</v>
+        <v>0.9949994999937555</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9711385065169381</v>
+        <v>0.9711574546244615</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033708411877263</v>
+        <v>1.033717405359982</v>
       </c>
       <c r="J18">
-        <v>0.9991038621363615</v>
+        <v>0.9991230246335573</v>
       </c>
       <c r="K18">
-        <v>1.008889314439856</v>
+        <v>1.008905110465699</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9854747451041377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9854933402944838</v>
+      </c>
+      <c r="N18">
+        <v>1.001226913434154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.971501655639268</v>
+        <v>0.9715212428299157</v>
       </c>
       <c r="D19">
-        <v>0.9954408706864127</v>
+        <v>0.9954566380156781</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9717957396513229</v>
+        <v>0.9718143130370899</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03392238293881</v>
+        <v>1.033931203634622</v>
       </c>
       <c r="J19">
-        <v>0.9995450638036572</v>
+        <v>0.9995638526908096</v>
       </c>
       <c r="K19">
-        <v>1.009273798667438</v>
+        <v>1.009289292080049</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9860524793696003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9860707092975098</v>
+      </c>
+      <c r="N19">
+        <v>1.00152990795656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9687701319968767</v>
+        <v>0.9687915081266409</v>
       </c>
       <c r="D20">
-        <v>0.9933838756208021</v>
+        <v>0.9934010418165904</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9688402819284578</v>
+        <v>0.9688605488340769</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032958894495015</v>
+        <v>1.032968495011225</v>
       </c>
       <c r="J20">
-        <v>0.9975603574109838</v>
+        <v>0.9975808319670246</v>
       </c>
       <c r="K20">
-        <v>1.007544067860768</v>
+        <v>1.007560926972313</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.983454096806945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9834739767268843</v>
+      </c>
+      <c r="N20">
+        <v>1.00016684629478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9596054937796125</v>
+        <v>0.9596330242121975</v>
       </c>
       <c r="D21">
-        <v>0.9864902192829399</v>
+        <v>0.9865121836693546</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.958932661371969</v>
+        <v>0.9589587712194766</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029706154365904</v>
+        <v>1.029718424448514</v>
       </c>
       <c r="J21">
-        <v>0.9908948620212139</v>
+        <v>0.9909210972981569</v>
       </c>
       <c r="K21">
-        <v>1.001732139893259</v>
+        <v>1.001753673074431</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9747361981637446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9747617556718766</v>
+      </c>
+      <c r="N21">
+        <v>0.9955879550910021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9536064941693841</v>
+        <v>0.9536381892371496</v>
       </c>
       <c r="D22">
-        <v>0.9819848717799644</v>
+        <v>0.9820100703754996</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9524536085326099</v>
+        <v>0.9524836870650534</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027561952035533</v>
+        <v>1.027576017152343</v>
       </c>
       <c r="J22">
-        <v>0.9865271822277993</v>
+        <v>0.986557282488923</v>
       </c>
       <c r="K22">
-        <v>0.997921863564577</v>
+        <v>0.9979465384937045</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9690297130854706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9690591137714276</v>
+      </c>
+      <c r="N22">
+        <v>0.9925867630546621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9568104410325234</v>
+        <v>0.9568398978183228</v>
       </c>
       <c r="D23">
-        <v>0.9843903527317286</v>
+        <v>0.9844138143965867</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9559133655478625</v>
+        <v>0.955941309639634</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028708497782846</v>
+        <v>1.02872159930219</v>
       </c>
       <c r="J23">
-        <v>0.9888602687834986</v>
+        <v>0.9888882951249064</v>
       </c>
       <c r="K23">
-        <v>0.9999573657593676</v>
+        <v>0.9999803542779648</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9720774215671687</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9721047566237779</v>
+      </c>
+      <c r="N23">
+        <v>0.9941899801357537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.968920040672347</v>
+        <v>0.9689413181027077</v>
       </c>
       <c r="D24">
-        <v>0.993496738954371</v>
+        <v>0.9935138280196438</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.969002449117656</v>
+        <v>0.9690226225304679</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033011847168009</v>
+        <v>1.03302140470509</v>
       </c>
       <c r="J24">
-        <v>0.997669305270969</v>
+        <v>0.9976896869566172</v>
       </c>
       <c r="K24">
-        <v>1.007639029825688</v>
+        <v>1.007655813671505</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9835966985988487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9836164874809654</v>
+      </c>
+      <c r="N24">
+        <v>1.000241674219686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820592015526409</v>
+        <v>0.9820720537408082</v>
       </c>
       <c r="D25">
-        <v>1.003400240721684</v>
+        <v>1.003410725490401</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9832309964343904</v>
+        <v>0.9832432140552385</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037616651072301</v>
+        <v>1.037622520274859</v>
       </c>
       <c r="J25">
-        <v>1.00720580636242</v>
+        <v>1.007218203603685</v>
       </c>
       <c r="K25">
-        <v>1.015946000659</v>
+        <v>1.015956324072387</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9960953297197652</v>
+        <v>0.9961073492836311</v>
+      </c>
+      <c r="N25">
+        <v>1.00678935557945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9919182965354719</v>
+        <v>1.003789484312296</v>
       </c>
       <c r="D2">
-        <v>1.010844546270458</v>
+        <v>1.020123360504238</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.016066079568107</v>
       </c>
       <c r="F2">
-        <v>0.9939288008422145</v>
+        <v>1.023136901727893</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041018281869365</v>
+        <v>1.043036203454451</v>
       </c>
       <c r="J2">
-        <v>1.014343446491705</v>
+        <v>1.025857440312233</v>
       </c>
       <c r="K2">
-        <v>1.022154838819787</v>
+        <v>1.031309286771291</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.027306035537365</v>
       </c>
       <c r="M2">
-        <v>1.005473370172487</v>
+        <v>1.034283045220092</v>
       </c>
       <c r="N2">
-        <v>1.011681960629213</v>
+        <v>1.027314275544979</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.998749154097007</v>
+        <v>1.011380064772129</v>
       </c>
       <c r="D3">
-        <v>1.016006574089391</v>
+        <v>1.025902846753913</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.022369325554209</v>
       </c>
       <c r="F3">
-        <v>1.001355087262977</v>
+        <v>1.029920848265192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043341268108477</v>
+        <v>1.045438830529178</v>
       </c>
       <c r="J3">
-        <v>1.019273976612655</v>
+        <v>1.031565233036585</v>
       </c>
       <c r="K3">
-        <v>1.026438663745032</v>
+        <v>1.036214685487582</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.032723768688609</v>
       </c>
       <c r="M3">
-        <v>1.011970658807927</v>
+        <v>1.04018468143554</v>
       </c>
       <c r="N3">
-        <v>1.015065252318885</v>
+        <v>1.033030173989683</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003034726469309</v>
+        <v>1.016140586990686</v>
       </c>
       <c r="D4">
-        <v>1.019246654423362</v>
+        <v>1.02952986116338</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.026339785572589</v>
       </c>
       <c r="F4">
-        <v>1.006020404326804</v>
+        <v>1.034191109654341</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044783055147534</v>
+        <v>1.046933691803435</v>
       </c>
       <c r="J4">
-        <v>1.022361120916077</v>
+        <v>1.035140236369029</v>
       </c>
       <c r="K4">
-        <v>1.029118208923194</v>
+        <v>1.039284486020774</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.036130375554055</v>
       </c>
       <c r="M4">
-        <v>1.01604670739536</v>
+        <v>1.043893674072696</v>
       </c>
       <c r="N4">
-        <v>1.017182503490048</v>
+        <v>1.036610254236917</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004805926622279</v>
+        <v>1.018107782157124</v>
       </c>
       <c r="D5">
-        <v>1.020586022515817</v>
+        <v>1.031029100399552</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.02798447706237</v>
       </c>
       <c r="F5">
-        <v>1.007950049952891</v>
+        <v>1.035959305703246</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045375124928979</v>
+        <v>1.047548470767563</v>
       </c>
       <c r="J5">
-        <v>1.023635481954721</v>
+        <v>1.036616337217324</v>
       </c>
       <c r="K5">
-        <v>1.030223647320296</v>
+        <v>1.040551332606642</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.037540053888328</v>
       </c>
       <c r="M5">
-        <v>1.017731245033715</v>
+        <v>1.045428052122127</v>
       </c>
       <c r="N5">
-        <v>1.018056218013437</v>
+        <v>1.038088451317728</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005101580779945</v>
+        <v>1.018436137746641</v>
       </c>
       <c r="D6">
-        <v>1.020809606684522</v>
+        <v>1.03127936972915</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.028259230636974</v>
       </c>
       <c r="F6">
-        <v>1.008272240956118</v>
+        <v>1.036254652146841</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045473728996331</v>
+        <v>1.047650911826256</v>
       </c>
       <c r="J6">
-        <v>1.023848110416991</v>
+        <v>1.036862648837877</v>
       </c>
       <c r="K6">
-        <v>1.030408050906503</v>
+        <v>1.040762687229855</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.037775462494598</v>
       </c>
       <c r="M6">
-        <v>1.018012429006313</v>
+        <v>1.04568426026463</v>
       </c>
       <c r="N6">
-        <v>1.018201981557056</v>
+        <v>1.038335112729035</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00305851081257</v>
+        <v>1.01616700427799</v>
       </c>
       <c r="D7">
-        <v>1.019264639046088</v>
+        <v>1.029549992701399</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.026361856475919</v>
       </c>
       <c r="F7">
-        <v>1.006046310379249</v>
+        <v>1.03421484057966</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044791020857344</v>
+        <v>1.046941959361049</v>
       </c>
       <c r="J7">
-        <v>1.022378239663435</v>
+        <v>1.035160063642122</v>
       </c>
       <c r="K7">
-        <v>1.029133061173935</v>
+        <v>1.039301505192581</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.036149298417846</v>
       </c>
       <c r="M7">
-        <v>1.016069328280157</v>
+        <v>1.04391427251847</v>
       </c>
       <c r="N7">
-        <v>1.017194241386769</v>
+        <v>1.036630109667013</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9942557458598178</v>
+        <v>1.006387328237186</v>
       </c>
       <c r="D8">
-        <v>1.012610558968307</v>
+        <v>1.02210079567411</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.018219569053729</v>
       </c>
       <c r="F8">
-        <v>0.9964687045233419</v>
+        <v>1.025455275340707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041816441670286</v>
+        <v>1.043860976846821</v>
       </c>
       <c r="J8">
-        <v>1.016031899116915</v>
+        <v>1.027811856296604</v>
       </c>
       <c r="K8">
-        <v>1.023622379236699</v>
+        <v>1.032989493411514</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.029158273147277</v>
       </c>
       <c r="M8">
-        <v>1.007696722881842</v>
+        <v>1.036301134327623</v>
       </c>
       <c r="N8">
-        <v>1.012840795729244</v>
+        <v>1.029271467024213</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9776280915672941</v>
+        <v>0.9878949476167094</v>
       </c>
       <c r="D9">
-        <v>1.000058859679223</v>
+        <v>1.008040277674987</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>1.002973696480394</v>
       </c>
       <c r="F9">
-        <v>0.9784269257352327</v>
+        <v>1.009027524027866</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036073815549763</v>
+        <v>1.037941217238878</v>
       </c>
       <c r="J9">
-        <v>1.003996370210203</v>
+        <v>1.013882529299561</v>
       </c>
       <c r="K9">
-        <v>1.013150981998114</v>
+        <v>1.021004240101355</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>1.016018711075204</v>
       </c>
       <c r="M9">
-        <v>0.9918799847423874</v>
+        <v>1.021975814437985</v>
       </c>
       <c r="N9">
-        <v>1.004575968509766</v>
+        <v>1.015322358785118</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9656564907137946</v>
+        <v>0.9745581220133293</v>
       </c>
       <c r="D10">
-        <v>0.991041535780428</v>
+        <v>0.9979266133715702</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.9920963761367725</v>
       </c>
       <c r="F10">
-        <v>0.9654696972636898</v>
+        <v>0.9972861578053824</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031859333142417</v>
+        <v>1.03361320511305</v>
       </c>
       <c r="J10">
-        <v>0.995302226459178</v>
+        <v>1.003818832380897</v>
       </c>
       <c r="K10">
-        <v>1.005574444073739</v>
+        <v>1.012333404636794</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>1.006609814476785</v>
       </c>
       <c r="M10">
-        <v>0.980491708884963</v>
+        <v>1.011704585001992</v>
       </c>
       <c r="N10">
-        <v>0.9986003936138369</v>
+        <v>1.005244370262507</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9602266038562924</v>
+        <v>0.968501056663267</v>
       </c>
       <c r="D11">
-        <v>0.98695827824987</v>
+        <v>0.9933422816759723</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9871884876427319</v>
       </c>
       <c r="F11">
-        <v>0.9596001600141998</v>
+        <v>0.991982648225274</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029929943193731</v>
+        <v>1.031635047405923</v>
       </c>
       <c r="J11">
-        <v>0.9913530015220537</v>
+        <v>0.9992455870276098</v>
       </c>
       <c r="K11">
-        <v>1.00213040576782</v>
+        <v>1.008390854551788</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.00235612330776</v>
       </c>
       <c r="M11">
-        <v>0.9753264085448341</v>
+        <v>1.00705736059935</v>
       </c>
       <c r="N11">
-        <v>0.995884961268547</v>
+        <v>1.00066463037626</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9581691864056698</v>
+        <v>0.9662045379898813</v>
       </c>
       <c r="D12">
-        <v>0.9854123011616656</v>
+        <v>0.9916057266405069</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9853329126512851</v>
       </c>
       <c r="F12">
-        <v>0.9573772337257725</v>
+        <v>0.98997655098376</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029196309252113</v>
+        <v>1.030883284069246</v>
       </c>
       <c r="J12">
-        <v>0.9898558250731682</v>
+        <v>0.9975113954222508</v>
       </c>
       <c r="K12">
-        <v>1.000824418466675</v>
+        <v>1.006895534284203</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>1.000746610867492</v>
       </c>
       <c r="M12">
-        <v>0.9733692579596833</v>
+        <v>1.005298337342798</v>
       </c>
       <c r="N12">
-        <v>0.994855375542788</v>
+        <v>0.9989279760199065</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9586124049547116</v>
+        <v>0.9666993353927261</v>
       </c>
       <c r="D13">
-        <v>0.9857452856501582</v>
+        <v>0.9919798012892562</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9857324630282067</v>
       </c>
       <c r="F13">
-        <v>0.9578560589483845</v>
+        <v>0.9904085565528274</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02935446657708</v>
+        <v>1.031045332234317</v>
       </c>
       <c r="J13">
-        <v>0.9901783879864687</v>
+        <v>0.9978850455294858</v>
       </c>
       <c r="K13">
-        <v>1.001105804359405</v>
+        <v>1.00721772927715</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>1.001093235971522</v>
       </c>
       <c r="M13">
-        <v>0.9737908757537221</v>
+        <v>1.005677189403592</v>
       </c>
       <c r="N13">
-        <v>0.9950772036143672</v>
+        <v>0.999302156753152</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9600573857776976</v>
+        <v>0.9683122042828757</v>
       </c>
       <c r="D14">
-        <v>0.9868310996426658</v>
+        <v>0.9931994439151881</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.987035787279444</v>
       </c>
       <c r="F14">
-        <v>0.9594173075691962</v>
+        <v>0.9918175806574846</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029869654988252</v>
+        <v>1.03157326140306</v>
       </c>
       <c r="J14">
-        <v>0.9912298775102771</v>
+        <v>0.9991029814999988</v>
       </c>
       <c r="K14">
-        <v>1.002023011113191</v>
+        <v>1.008267897409275</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.00222369812674</v>
       </c>
       <c r="M14">
-        <v>0.975165436856445</v>
+        <v>1.006912646791388</v>
       </c>
       <c r="N14">
-        <v>0.9958002936404179</v>
+        <v>1.000521822332443</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9609422033989075</v>
+        <v>0.9692996259553874</v>
       </c>
       <c r="D15">
-        <v>0.9874961484594814</v>
+        <v>0.9939463421708167</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9878344019942235</v>
       </c>
       <c r="F15">
-        <v>0.9603734609352146</v>
+        <v>0.9926808362293138</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030184789565324</v>
+        <v>1.031896241547834</v>
       </c>
       <c r="J15">
-        <v>0.9918736441552968</v>
+        <v>0.9998485901949411</v>
       </c>
       <c r="K15">
-        <v>1.002584522024019</v>
+        <v>1.008910763618762</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.002916222698684</v>
       </c>
       <c r="M15">
-        <v>0.9760071358735496</v>
+        <v>1.007669410446028</v>
       </c>
       <c r="N15">
-        <v>0.996242981189664</v>
+        <v>1.001268489877255</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9660113776096604</v>
+        <v>0.9749538143343552</v>
       </c>
       <c r="D16">
-        <v>0.9913085632104246</v>
+        <v>0.9982262995348689</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9924176930743962</v>
       </c>
       <c r="F16">
-        <v>0.965853469049258</v>
+        <v>0.9976332499908273</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031985073894162</v>
+        <v>1.033742184710972</v>
       </c>
       <c r="J16">
-        <v>0.99556022618221</v>
+        <v>1.004117546648906</v>
       </c>
       <c r="K16">
-        <v>1.005799392614601</v>
+        <v>1.012590880553949</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>1.006888126583608</v>
       </c>
       <c r="M16">
-        <v>0.9808293041285855</v>
+        <v>1.012008564900657</v>
       </c>
       <c r="N16">
-        <v>0.9987777694226972</v>
+        <v>1.00554350873904</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9691228910286871</v>
+        <v>0.978422169965481</v>
       </c>
       <c r="D17">
-        <v>0.9936505315157079</v>
+        <v>1.000854162432397</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9952377926005791</v>
       </c>
       <c r="F17">
-        <v>0.9692190641411613</v>
+        <v>1.000678911406451</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03308552081606</v>
+        <v>1.034871329464207</v>
       </c>
       <c r="J17">
-        <v>0.9978216177074004</v>
+        <v>1.00673557306646</v>
       </c>
       <c r="K17">
-        <v>1.007770813425488</v>
+        <v>1.014847231644312</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.009329838985412</v>
       </c>
       <c r="M17">
-        <v>0.9837892135922941</v>
+        <v>1.014675047308917</v>
       </c>
       <c r="N17">
-        <v>1.000332363923921</v>
+        <v>1.008165253054399</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9709143012925735</v>
+        <v>0.9804182991449465</v>
       </c>
       <c r="D18">
-        <v>0.9949994999937555</v>
+        <v>1.002367383318661</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9968638203564979</v>
       </c>
       <c r="F18">
-        <v>0.9711574546244615</v>
+        <v>1.002434458395299</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033717405359982</v>
+        <v>1.035519996416295</v>
       </c>
       <c r="J18">
-        <v>0.9991230246335573</v>
+        <v>1.008242051388431</v>
       </c>
       <c r="K18">
-        <v>1.008905110465699</v>
+        <v>1.016145377384103</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.010736908825536</v>
       </c>
       <c r="M18">
-        <v>0.9854933402944838</v>
+        <v>1.016211301814842</v>
       </c>
       <c r="N18">
-        <v>1.001226913434154</v>
+        <v>1.009673870748382</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9715212428299157</v>
+        <v>0.981094484408057</v>
       </c>
       <c r="D19">
-        <v>0.9954566380156781</v>
+        <v>1.002880116129692</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9974151299902919</v>
       </c>
       <c r="F19">
-        <v>0.9718143130370899</v>
+        <v>1.003029593136082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033931203634622</v>
+        <v>1.03573952643094</v>
       </c>
       <c r="J19">
-        <v>0.9995638526908096</v>
+        <v>1.008752319390348</v>
       </c>
       <c r="K19">
-        <v>1.009289292080049</v>
+        <v>1.016585041925318</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.011213847428244</v>
       </c>
       <c r="M19">
-        <v>0.9860707092975098</v>
+        <v>1.016731972109429</v>
       </c>
       <c r="N19">
-        <v>1.00152990795656</v>
+        <v>1.010184863389391</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9687915081266409</v>
+        <v>0.97805285999956</v>
       </c>
       <c r="D20">
-        <v>0.9934010418165904</v>
+        <v>1.00057426140771</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9949371956176042</v>
       </c>
       <c r="F20">
-        <v>0.9688605488340769</v>
+        <v>1.000354327842674</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032968495011225</v>
+        <v>1.034751220644868</v>
       </c>
       <c r="J20">
-        <v>0.9975808319670246</v>
+        <v>1.006456832505116</v>
       </c>
       <c r="K20">
-        <v>1.007560926972313</v>
+        <v>1.014607020631386</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.009069656373607</v>
       </c>
       <c r="M20">
-        <v>0.9834739767268843</v>
+        <v>1.014390949682647</v>
       </c>
       <c r="N20">
-        <v>1.00016684629478</v>
+        <v>1.007886116649486</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9596330242121975</v>
+        <v>0.9678385797921969</v>
       </c>
       <c r="D21">
-        <v>0.9865121836693546</v>
+        <v>0.9928412461702827</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9866529143722965</v>
       </c>
       <c r="F21">
-        <v>0.9589587712194766</v>
+        <v>0.9914036833642714</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029718424448514</v>
+        <v>1.031418280106634</v>
       </c>
       <c r="J21">
-        <v>0.9909210972981569</v>
+        <v>0.9987453362569693</v>
       </c>
       <c r="K21">
-        <v>1.001753673074431</v>
+        <v>1.007959524523654</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.001891641547558</v>
       </c>
       <c r="M21">
-        <v>0.9747617556718766</v>
+        <v>1.006549766507693</v>
       </c>
       <c r="N21">
-        <v>0.9955879550910021</v>
+        <v>1.000163669192145</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9536381892371496</v>
+        <v>0.9611439483883443</v>
       </c>
       <c r="D22">
-        <v>0.9820100703754996</v>
+        <v>0.9877822840809245</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9812541481098094</v>
       </c>
       <c r="F22">
-        <v>0.9524836870650534</v>
+        <v>0.9855650786605088</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027576017152343</v>
+        <v>1.029223634598036</v>
       </c>
       <c r="J22">
-        <v>0.986557282488923</v>
+        <v>0.9936896473866295</v>
       </c>
       <c r="K22">
-        <v>0.9979465384937045</v>
+        <v>1.003599724934661</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9972063409391361</v>
       </c>
       <c r="M22">
-        <v>0.9690591137714276</v>
+        <v>1.001428022273788</v>
       </c>
       <c r="N22">
-        <v>0.9925867630546621</v>
+        <v>0.9951008006637142</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9568398978183228</v>
+        <v>0.9647203188194259</v>
       </c>
       <c r="D23">
-        <v>0.9844138143965867</v>
+        <v>0.9904838857051196</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9841352030658074</v>
       </c>
       <c r="F23">
-        <v>0.955941309639634</v>
+        <v>0.9886814068722308</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02872159930219</v>
+        <v>1.030396950787622</v>
       </c>
       <c r="J23">
-        <v>0.9888882951249064</v>
+        <v>0.9963905502247633</v>
       </c>
       <c r="K23">
-        <v>0.9999803542779648</v>
+        <v>1.005929001438899</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9997073635590232</v>
       </c>
       <c r="M23">
-        <v>0.9721047566237779</v>
+        <v>1.004162374286584</v>
       </c>
       <c r="N23">
-        <v>0.9941899801357537</v>
+        <v>0.9978055390936761</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9689413181027077</v>
+        <v>0.9782198181018873</v>
       </c>
       <c r="D24">
-        <v>0.9935138280196438</v>
+        <v>1.000700796884397</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9950730806173917</v>
       </c>
       <c r="F24">
-        <v>0.9690226225304679</v>
+        <v>1.000501057646861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03302140470509</v>
+        <v>1.034805523280635</v>
       </c>
       <c r="J24">
-        <v>0.9976896869566172</v>
+        <v>1.006582846711795</v>
       </c>
       <c r="K24">
-        <v>1.007655813671505</v>
+        <v>1.014715616910921</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>1.009187274476633</v>
       </c>
       <c r="M24">
-        <v>0.9836164874809654</v>
+        <v>1.014519379861362</v>
       </c>
       <c r="N24">
-        <v>1.000241674219686</v>
+        <v>1.008012309810792</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820720537408082</v>
+        <v>0.9928403929991473</v>
       </c>
       <c r="D25">
-        <v>1.003410725490401</v>
+        <v>1.011796684176263</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>1.00703207963559</v>
       </c>
       <c r="F25">
-        <v>0.9832432140552385</v>
+        <v>1.013403831374432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037622520274859</v>
+        <v>1.039534710590532</v>
       </c>
       <c r="J25">
-        <v>1.007218203603685</v>
+        <v>1.01761113241629</v>
       </c>
       <c r="K25">
-        <v>1.015956324072387</v>
+        <v>1.024214590899816</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.019522203687191</v>
       </c>
       <c r="M25">
-        <v>0.9961073492836311</v>
+        <v>1.025797573437097</v>
       </c>
       <c r="N25">
-        <v>1.00678935557945</v>
+        <v>1.019056256945949</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003789484312296</v>
+        <v>1.004921588717532</v>
       </c>
       <c r="D2">
-        <v>1.020123360504238</v>
+        <v>1.020337246821745</v>
       </c>
       <c r="E2">
-        <v>1.016066079568107</v>
+        <v>1.008269561663006</v>
       </c>
       <c r="F2">
-        <v>1.023136901727893</v>
+        <v>1.012470185255863</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043036203454451</v>
+        <v>1.042641067956292</v>
       </c>
       <c r="J2">
-        <v>1.025857440312233</v>
+        <v>1.026956085810206</v>
       </c>
       <c r="K2">
-        <v>1.031309286771291</v>
+        <v>1.031520339783266</v>
       </c>
       <c r="L2">
-        <v>1.027306035537365</v>
+        <v>1.019614878136443</v>
       </c>
       <c r="M2">
-        <v>1.034283045220092</v>
+        <v>1.023758481866942</v>
       </c>
       <c r="N2">
-        <v>1.027314275544979</v>
+        <v>1.028414481245567</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011380064772129</v>
+        <v>1.008791358952843</v>
       </c>
       <c r="D3">
-        <v>1.025902846753913</v>
+        <v>1.023016899644307</v>
       </c>
       <c r="E3">
-        <v>1.022369325554209</v>
+        <v>1.013569249502172</v>
       </c>
       <c r="F3">
-        <v>1.029920848265192</v>
+        <v>1.018018260746652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045438830529178</v>
+        <v>1.043604424640892</v>
       </c>
       <c r="J3">
-        <v>1.031565233036585</v>
+        <v>1.029045198335778</v>
       </c>
       <c r="K3">
-        <v>1.036214685487582</v>
+        <v>1.033363507492834</v>
       </c>
       <c r="L3">
-        <v>1.032723768688609</v>
+        <v>1.024031404006072</v>
       </c>
       <c r="M3">
-        <v>1.04018468143554</v>
+        <v>1.028425670735081</v>
       </c>
       <c r="N3">
-        <v>1.033030173989683</v>
+        <v>1.030506560550548</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016140586990686</v>
+        <v>1.011245487656449</v>
       </c>
       <c r="D4">
-        <v>1.02952986116338</v>
+        <v>1.024718886299029</v>
       </c>
       <c r="E4">
-        <v>1.026339785572589</v>
+        <v>1.016931240931962</v>
       </c>
       <c r="F4">
-        <v>1.034191109654341</v>
+        <v>1.021537500698312</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046933691803435</v>
+        <v>1.044206262572748</v>
       </c>
       <c r="J4">
-        <v>1.035140236369029</v>
+        <v>1.030365842412457</v>
       </c>
       <c r="K4">
-        <v>1.039284486020774</v>
+        <v>1.034527856189697</v>
       </c>
       <c r="L4">
-        <v>1.036130375554055</v>
+        <v>1.026829526813451</v>
       </c>
       <c r="M4">
-        <v>1.043893674072696</v>
+        <v>1.031382754638337</v>
       </c>
       <c r="N4">
-        <v>1.036610254236917</v>
+        <v>1.031829080093296</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018107782157124</v>
+        <v>1.012265648805218</v>
       </c>
       <c r="D5">
-        <v>1.031029100399552</v>
+        <v>1.02542697254513</v>
       </c>
       <c r="E5">
-        <v>1.02798447706237</v>
+        <v>1.018329198171238</v>
       </c>
       <c r="F5">
-        <v>1.035959305703246</v>
+        <v>1.023000764418492</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047548470767563</v>
+        <v>1.044454228410769</v>
       </c>
       <c r="J5">
-        <v>1.036616337217324</v>
+        <v>1.030913790695416</v>
       </c>
       <c r="K5">
-        <v>1.040551332606642</v>
+        <v>1.035010747178142</v>
       </c>
       <c r="L5">
-        <v>1.037540053888328</v>
+        <v>1.027992143126713</v>
       </c>
       <c r="M5">
-        <v>1.045428052122127</v>
+        <v>1.032611449543035</v>
       </c>
       <c r="N5">
-        <v>1.038088451317728</v>
+        <v>1.032377806525668</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018436137746641</v>
+        <v>1.01243627162771</v>
       </c>
       <c r="D6">
-        <v>1.03127936972915</v>
+        <v>1.025545433756246</v>
       </c>
       <c r="E6">
-        <v>1.028259230636974</v>
+        <v>1.018563035911762</v>
       </c>
       <c r="F6">
-        <v>1.036254652146841</v>
+        <v>1.023245521318279</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047650911826256</v>
+        <v>1.044495569960861</v>
       </c>
       <c r="J6">
-        <v>1.036862648837877</v>
+        <v>1.031005374283172</v>
       </c>
       <c r="K6">
-        <v>1.040762687229855</v>
+        <v>1.035091444523474</v>
       </c>
       <c r="L6">
-        <v>1.037775462494598</v>
+        <v>1.02818656327273</v>
       </c>
       <c r="M6">
-        <v>1.04568426026463</v>
+        <v>1.032816921397675</v>
       </c>
       <c r="N6">
-        <v>1.038335112729035</v>
+        <v>1.032469520172623</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01616700427799</v>
+        <v>1.011259164004605</v>
       </c>
       <c r="D7">
-        <v>1.029549992701399</v>
+        <v>1.02472837669522</v>
       </c>
       <c r="E7">
-        <v>1.026361856475919</v>
+        <v>1.016949980239726</v>
       </c>
       <c r="F7">
-        <v>1.03421484057966</v>
+        <v>1.021557115741105</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046941959361049</v>
+        <v>1.044209595599802</v>
       </c>
       <c r="J7">
-        <v>1.035160063642122</v>
+        <v>1.030373192346315</v>
       </c>
       <c r="K7">
-        <v>1.039301505192581</v>
+        <v>1.03453433431519</v>
       </c>
       <c r="L7">
-        <v>1.036149298417846</v>
+        <v>1.026845114907159</v>
       </c>
       <c r="M7">
-        <v>1.04391427251847</v>
+        <v>1.031399228585965</v>
       </c>
       <c r="N7">
-        <v>1.036630109667013</v>
+        <v>1.031836440464904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006387328237186</v>
+        <v>1.006239959578751</v>
       </c>
       <c r="D8">
-        <v>1.02210079567411</v>
+        <v>1.021249591487511</v>
       </c>
       <c r="E8">
-        <v>1.018219569053729</v>
+        <v>1.010074963358575</v>
       </c>
       <c r="F8">
-        <v>1.025455275340707</v>
+        <v>1.014360269494572</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043860976846821</v>
+        <v>1.04297115914247</v>
       </c>
       <c r="J8">
-        <v>1.027811856296604</v>
+        <v>1.027668689420177</v>
       </c>
       <c r="K8">
-        <v>1.032989493411514</v>
+        <v>1.032149215591962</v>
       </c>
       <c r="L8">
-        <v>1.029158273147277</v>
+        <v>1.021120170599764</v>
       </c>
       <c r="M8">
-        <v>1.036301134327623</v>
+        <v>1.025349172724463</v>
       </c>
       <c r="N8">
-        <v>1.029271467024213</v>
+        <v>1.029128096834401</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9878949476167094</v>
+        <v>0.9969952470768998</v>
       </c>
       <c r="D9">
-        <v>1.008040277674987</v>
+        <v>1.014864809157413</v>
       </c>
       <c r="E9">
-        <v>1.002973696480394</v>
+        <v>0.9974126547137282</v>
       </c>
       <c r="F9">
-        <v>1.009027524027866</v>
+        <v>1.001102753452835</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037941217238878</v>
+        <v>1.04061907751629</v>
       </c>
       <c r="J9">
-        <v>1.013882529299561</v>
+        <v>1.022654558933206</v>
       </c>
       <c r="K9">
-        <v>1.021004240101355</v>
+        <v>1.027721232537478</v>
       </c>
       <c r="L9">
-        <v>1.016018711075204</v>
+        <v>1.010547849735695</v>
       </c>
       <c r="M9">
-        <v>1.021975814437985</v>
+        <v>1.014177964552681</v>
       </c>
       <c r="N9">
-        <v>1.015322358785118</v>
+        <v>1.024106845707008</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9745581220133293</v>
+        <v>0.9905358391361513</v>
       </c>
       <c r="D10">
-        <v>0.9979266133715702</v>
+        <v>1.010421896782868</v>
       </c>
       <c r="E10">
-        <v>0.9920963761367725</v>
+        <v>0.9885540528102152</v>
       </c>
       <c r="F10">
-        <v>0.9972861578053824</v>
+        <v>0.9918262155243334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03361320511305</v>
+        <v>1.038929402670548</v>
       </c>
       <c r="J10">
-        <v>1.003818832380897</v>
+        <v>1.019130050338469</v>
       </c>
       <c r="K10">
-        <v>1.012333404636794</v>
+        <v>1.024605496161209</v>
       </c>
       <c r="L10">
-        <v>1.006609814476785</v>
+        <v>1.003133089010912</v>
       </c>
       <c r="M10">
-        <v>1.011704585001992</v>
+        <v>1.006344635273185</v>
       </c>
       <c r="N10">
-        <v>1.005244370262507</v>
+        <v>1.0205773319058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.968501056663267</v>
+        <v>0.9876620014905608</v>
       </c>
       <c r="D11">
-        <v>0.9933422816759723</v>
+        <v>1.008450202044331</v>
       </c>
       <c r="E11">
-        <v>0.9871884876427319</v>
+        <v>0.9846072595048028</v>
       </c>
       <c r="F11">
-        <v>0.991982648225274</v>
+        <v>0.9876928906551175</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031635047405923</v>
+        <v>1.038167094732592</v>
       </c>
       <c r="J11">
-        <v>0.9992455870276098</v>
+        <v>1.017557218414945</v>
       </c>
       <c r="K11">
-        <v>1.008390854551788</v>
+        <v>1.023214500199932</v>
       </c>
       <c r="L11">
-        <v>1.00235612330776</v>
+        <v>0.9998254180380183</v>
       </c>
       <c r="M11">
-        <v>1.00705736059935</v>
+        <v>1.002850693992388</v>
       </c>
       <c r="N11">
-        <v>1.00066463037626</v>
+        <v>1.019002266380538</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9662045379898813</v>
+        <v>0.986582376570856</v>
       </c>
       <c r="D12">
-        <v>0.9916057266405069</v>
+        <v>1.007710296798548</v>
       </c>
       <c r="E12">
-        <v>0.9853329126512851</v>
+        <v>0.9831234557910549</v>
       </c>
       <c r="F12">
-        <v>0.98997655098376</v>
+        <v>0.9861389140172709</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030883284069246</v>
+        <v>1.037879164605026</v>
       </c>
       <c r="J12">
-        <v>0.9975113954222508</v>
+        <v>1.01696565347643</v>
       </c>
       <c r="K12">
-        <v>1.006895534284203</v>
+        <v>1.022691255631644</v>
       </c>
       <c r="L12">
-        <v>1.000746610867492</v>
+        <v>0.9985812870194886</v>
       </c>
       <c r="M12">
-        <v>1.005298337342798</v>
+        <v>1.001536577387723</v>
       </c>
       <c r="N12">
-        <v>0.9989279760199065</v>
+        <v>1.018409861351957</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9666993353927261</v>
+        <v>0.9868145199332446</v>
       </c>
       <c r="D13">
-        <v>0.9919798012892562</v>
+        <v>1.00786935538375</v>
       </c>
       <c r="E13">
-        <v>0.9857324630282067</v>
+        <v>0.9834425606749212</v>
       </c>
       <c r="F13">
-        <v>0.9904085565528274</v>
+        <v>0.9864731122266787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031045332234317</v>
+        <v>1.03794114549811</v>
       </c>
       <c r="J13">
-        <v>0.9978850455294858</v>
+        <v>1.017092884099168</v>
       </c>
       <c r="K13">
-        <v>1.00721772927715</v>
+        <v>1.022803795200423</v>
       </c>
       <c r="L13">
-        <v>1.001093235971522</v>
+        <v>0.9988488753021878</v>
       </c>
       <c r="M13">
-        <v>1.005677189403592</v>
+        <v>1.00181921455491</v>
       </c>
       <c r="N13">
-        <v>0.999302156753152</v>
+        <v>1.018537272656773</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9683122042828757</v>
+        <v>0.9875730109341916</v>
       </c>
       <c r="D14">
-        <v>0.9931994439151881</v>
+        <v>1.008389196880246</v>
       </c>
       <c r="E14">
-        <v>0.987035787279444</v>
+        <v>0.9844849775071018</v>
       </c>
       <c r="F14">
-        <v>0.9918175806574846</v>
+        <v>0.987564826542034</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03157326140306</v>
+        <v>1.038143392758956</v>
       </c>
       <c r="J14">
-        <v>0.9991029814999988</v>
+        <v>1.017508471300385</v>
       </c>
       <c r="K14">
-        <v>1.008267897409275</v>
+        <v>1.023171384274714</v>
       </c>
       <c r="L14">
-        <v>1.00222369812674</v>
+        <v>0.9997228999634361</v>
       </c>
       <c r="M14">
-        <v>1.006912646791388</v>
+        <v>1.00274240738489</v>
       </c>
       <c r="N14">
-        <v>1.000521822332443</v>
+        <v>1.018953450039484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9692996259553874</v>
+        <v>0.9880387129983602</v>
       </c>
       <c r="D15">
-        <v>0.9939463421708167</v>
+        <v>1.008708480143645</v>
       </c>
       <c r="E15">
-        <v>0.9878344019942235</v>
+        <v>0.985124852715878</v>
       </c>
       <c r="F15">
-        <v>0.9926808362293138</v>
+        <v>0.9882349564502668</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031896241547834</v>
+        <v>1.038267366019306</v>
       </c>
       <c r="J15">
-        <v>0.9998485901949411</v>
+        <v>1.017763544732995</v>
       </c>
       <c r="K15">
-        <v>1.008910763618762</v>
+        <v>1.023396989244675</v>
       </c>
       <c r="L15">
-        <v>1.002916222698684</v>
+        <v>1.000259330238549</v>
       </c>
       <c r="M15">
-        <v>1.007669410446028</v>
+        <v>1.003309024963332</v>
       </c>
       <c r="N15">
-        <v>1.001268489877255</v>
+        <v>1.019208885705626</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9749538143343552</v>
+        <v>0.9907248960264441</v>
       </c>
       <c r="D16">
-        <v>0.9982262995348689</v>
+        <v>1.010551714643714</v>
       </c>
       <c r="E16">
-        <v>0.9924176930743962</v>
+        <v>0.9888135572620772</v>
       </c>
       <c r="F16">
-        <v>0.9976332499908273</v>
+        <v>0.9920979779975431</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033742184710972</v>
+        <v>1.038979334376468</v>
       </c>
       <c r="J16">
-        <v>1.004117546648906</v>
+        <v>1.019233422579654</v>
       </c>
       <c r="K16">
-        <v>1.012590880553949</v>
+        <v>1.024696906764947</v>
       </c>
       <c r="L16">
-        <v>1.006888126583608</v>
+        <v>1.003350485642337</v>
       </c>
       <c r="M16">
-        <v>1.012008564900657</v>
+        <v>1.006574284683531</v>
       </c>
       <c r="N16">
-        <v>1.00554350873904</v>
+        <v>1.020680850947425</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.978422169965481</v>
+        <v>0.9923888731690617</v>
       </c>
       <c r="D17">
-        <v>1.000854162432397</v>
+        <v>1.011694876866352</v>
       </c>
       <c r="E17">
-        <v>0.9952377926005791</v>
+        <v>0.9910969153544715</v>
       </c>
       <c r="F17">
-        <v>1.000678911406451</v>
+        <v>0.9944891564912955</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034871329464207</v>
+        <v>1.03941760815865</v>
       </c>
       <c r="J17">
-        <v>1.00673557306646</v>
+        <v>1.020142710818406</v>
       </c>
       <c r="K17">
-        <v>1.014847231644312</v>
+        <v>1.025500913327396</v>
       </c>
       <c r="L17">
-        <v>1.009329838985412</v>
+        <v>1.005262869692001</v>
       </c>
       <c r="M17">
-        <v>1.014675047308917</v>
+        <v>1.008594505665094</v>
       </c>
       <c r="N17">
-        <v>1.008165253054399</v>
+        <v>1.021591430479772</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9804182991449465</v>
+        <v>0.9933520689015997</v>
       </c>
       <c r="D18">
-        <v>1.002367383318661</v>
+        <v>1.012357067771362</v>
       </c>
       <c r="E18">
-        <v>0.9968638203564979</v>
+        <v>0.9924181336282422</v>
       </c>
       <c r="F18">
-        <v>1.002434458395299</v>
+        <v>0.9958727315402193</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035519996416295</v>
+        <v>1.039670298801185</v>
       </c>
       <c r="J18">
-        <v>1.008242051388431</v>
+        <v>1.020668601203448</v>
       </c>
       <c r="K18">
-        <v>1.016145377384103</v>
+        <v>1.025965857475691</v>
       </c>
       <c r="L18">
-        <v>1.010736908825536</v>
+        <v>1.006369036052752</v>
       </c>
       <c r="M18">
-        <v>1.016211301814842</v>
+        <v>1.00976308935546</v>
       </c>
       <c r="N18">
-        <v>1.009673870748382</v>
+        <v>1.022118067689482</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981094484408057</v>
+        <v>0.9936792606795558</v>
       </c>
       <c r="D19">
-        <v>1.002880116129692</v>
+        <v>1.012582087978509</v>
       </c>
       <c r="E19">
-        <v>0.9974151299902919</v>
+        <v>0.9928668650848907</v>
       </c>
       <c r="F19">
-        <v>1.003029593136082</v>
+        <v>0.9963426361182411</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03573952643094</v>
+        <v>1.039755964804447</v>
       </c>
       <c r="J19">
-        <v>1.008752319390348</v>
+        <v>1.02084716562344</v>
       </c>
       <c r="K19">
-        <v>1.016585041925318</v>
+        <v>1.026123717783994</v>
       </c>
       <c r="L19">
-        <v>1.011213847428244</v>
+        <v>1.006744660855287</v>
       </c>
       <c r="M19">
-        <v>1.016731972109429</v>
+        <v>1.010159916278585</v>
       </c>
       <c r="N19">
-        <v>1.010184863389391</v>
+        <v>1.022296885691433</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.97805285999956</v>
+        <v>0.9922111111312815</v>
       </c>
       <c r="D20">
-        <v>1.00057426140771</v>
+        <v>1.011572704148693</v>
       </c>
       <c r="E20">
-        <v>0.9949371956176042</v>
+        <v>0.990853039518651</v>
       </c>
       <c r="F20">
-        <v>1.000354327842674</v>
+        <v>0.9942337680379508</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034751220644868</v>
+        <v>1.03937089152873</v>
       </c>
       <c r="J20">
-        <v>1.006456832505116</v>
+        <v>1.020045618703047</v>
       </c>
       <c r="K20">
-        <v>1.014607020631386</v>
+        <v>1.025415068708232</v>
       </c>
       <c r="L20">
-        <v>1.009069656373607</v>
+        <v>1.005058656928833</v>
       </c>
       <c r="M20">
-        <v>1.014390949682647</v>
+        <v>1.0083787731765</v>
       </c>
       <c r="N20">
-        <v>1.007886116649486</v>
+        <v>1.021494200482473</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9678385797921969</v>
+        <v>0.9873499948079885</v>
       </c>
       <c r="D21">
-        <v>0.9928412461702827</v>
+        <v>1.008236327196028</v>
       </c>
       <c r="E21">
-        <v>0.9866529143722965</v>
+        <v>0.9841785122352156</v>
       </c>
       <c r="F21">
-        <v>0.9914036833642714</v>
+        <v>0.98724386930103</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031418280106634</v>
+        <v>1.038083969201904</v>
       </c>
       <c r="J21">
-        <v>0.9987453362569693</v>
+        <v>1.01738629675532</v>
       </c>
       <c r="K21">
-        <v>1.007959524523654</v>
+        <v>1.0230633220566</v>
       </c>
       <c r="L21">
-        <v>1.001891641547558</v>
+        <v>0.9994659576753856</v>
       </c>
       <c r="M21">
-        <v>1.006549766507693</v>
+        <v>1.002471008630271</v>
       </c>
       <c r="N21">
-        <v>1.000163669192145</v>
+        <v>1.018831101992552</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9611439483883443</v>
+        <v>0.9842229697919997</v>
       </c>
       <c r="D22">
-        <v>0.9877822840809245</v>
+        <v>1.006094864589995</v>
       </c>
       <c r="E22">
-        <v>0.9812541481098094</v>
+        <v>0.9798784282104528</v>
       </c>
       <c r="F22">
-        <v>0.9855650786605088</v>
+        <v>0.9827403396031849</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029223634598036</v>
+        <v>1.037247111281799</v>
       </c>
       <c r="J22">
-        <v>0.9936896473866295</v>
+        <v>1.01567159792116</v>
       </c>
       <c r="K22">
-        <v>1.003599724934661</v>
+        <v>1.021546540294468</v>
       </c>
       <c r="L22">
-        <v>0.9972063409391361</v>
+        <v>0.995859321097053</v>
       </c>
       <c r="M22">
-        <v>1.001428022273788</v>
+        <v>0.9986616469885522</v>
       </c>
       <c r="N22">
-        <v>0.9951008006637142</v>
+        <v>1.017113968089369</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9647203188194259</v>
+        <v>0.9858875746908093</v>
       </c>
       <c r="D23">
-        <v>0.9904838857051196</v>
+        <v>1.007234359746903</v>
       </c>
       <c r="E23">
-        <v>0.9841352030658074</v>
+        <v>0.9821681967729743</v>
       </c>
       <c r="F23">
-        <v>0.9886814068722308</v>
+        <v>0.9851384657548704</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030396950787622</v>
+        <v>1.037693432089147</v>
       </c>
       <c r="J23">
-        <v>0.9963905502247633</v>
+        <v>1.016584753916536</v>
       </c>
       <c r="K23">
-        <v>1.005929001438899</v>
+        <v>1.02235432867824</v>
       </c>
       <c r="L23">
-        <v>0.9997073635590232</v>
+        <v>0.9977801585317078</v>
       </c>
       <c r="M23">
-        <v>1.004162374286584</v>
+        <v>1.000690406359011</v>
       </c>
       <c r="N23">
-        <v>0.9978055390936761</v>
+        <v>1.018028420870998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782198181018873</v>
+        <v>0.9922914568883909</v>
       </c>
       <c r="D24">
-        <v>1.000700796884397</v>
+        <v>1.011627922920727</v>
       </c>
       <c r="E24">
-        <v>0.9950730806173917</v>
+        <v>0.9909632692663741</v>
       </c>
       <c r="F24">
-        <v>1.000501057646861</v>
+        <v>0.9943492014854877</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034805523280635</v>
+        <v>1.039392009857918</v>
       </c>
       <c r="J24">
-        <v>1.006582846711795</v>
+        <v>1.020089504277685</v>
       </c>
       <c r="K24">
-        <v>1.014715616910921</v>
+        <v>1.025453870597165</v>
       </c>
       <c r="L24">
-        <v>1.009187274476633</v>
+        <v>1.005150960541507</v>
       </c>
       <c r="M24">
-        <v>1.014519379861362</v>
+        <v>1.008476283544158</v>
       </c>
       <c r="N24">
-        <v>1.008012309810792</v>
+        <v>1.021538148379661</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9928403929991473</v>
+        <v>0.9994353476007319</v>
       </c>
       <c r="D25">
-        <v>1.011796684176263</v>
+        <v>1.016547113511655</v>
       </c>
       <c r="E25">
-        <v>1.00703207963559</v>
+        <v>1.000755874287979</v>
       </c>
       <c r="F25">
-        <v>1.013403831374432</v>
+        <v>1.004603399022739</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039534710590532</v>
+        <v>1.041248006111489</v>
       </c>
       <c r="J25">
-        <v>1.01761113241629</v>
+        <v>1.023981729505277</v>
       </c>
       <c r="K25">
-        <v>1.024214590899816</v>
+        <v>1.028893874829645</v>
       </c>
       <c r="L25">
-        <v>1.019522203687191</v>
+        <v>1.013342467603233</v>
       </c>
       <c r="M25">
-        <v>1.025797573437097</v>
+        <v>1.017130671007154</v>
       </c>
       <c r="N25">
-        <v>1.019056256945949</v>
+        <v>1.025435901013521</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004921588717532</v>
+        <v>1.029649106843733</v>
       </c>
       <c r="D2">
-        <v>1.020337246821745</v>
+        <v>1.032851307206566</v>
       </c>
       <c r="E2">
-        <v>1.008269561663006</v>
+        <v>1.050504100679194</v>
       </c>
       <c r="F2">
-        <v>1.012470185255863</v>
+        <v>1.055443569404625</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042641067956292</v>
+        <v>1.034135526793734</v>
       </c>
       <c r="J2">
-        <v>1.026956085810206</v>
+        <v>1.034794714404582</v>
       </c>
       <c r="K2">
-        <v>1.031520339783266</v>
+        <v>1.035655346612106</v>
       </c>
       <c r="L2">
-        <v>1.019614878136443</v>
+        <v>1.053258194707174</v>
       </c>
       <c r="M2">
-        <v>1.023758481866942</v>
+        <v>1.058184012321561</v>
       </c>
       <c r="N2">
-        <v>1.028414481245567</v>
+        <v>1.036264241591649</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008791358952843</v>
+        <v>1.030454664576612</v>
       </c>
       <c r="D3">
-        <v>1.023016899644307</v>
+        <v>1.033427927279874</v>
       </c>
       <c r="E3">
-        <v>1.013569249502172</v>
+        <v>1.051712646146979</v>
       </c>
       <c r="F3">
-        <v>1.018018260746652</v>
+        <v>1.056708145356397</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043604424640892</v>
+        <v>1.034286662105933</v>
       </c>
       <c r="J3">
-        <v>1.029045198335778</v>
+        <v>1.035242129110695</v>
       </c>
       <c r="K3">
-        <v>1.033363507492834</v>
+        <v>1.036041445900356</v>
       </c>
       <c r="L3">
-        <v>1.024031404006072</v>
+        <v>1.054278179386958</v>
       </c>
       <c r="M3">
-        <v>1.028425670735081</v>
+        <v>1.059260880229228</v>
       </c>
       <c r="N3">
-        <v>1.030506560550548</v>
+        <v>1.036712291677964</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011245487656449</v>
+        <v>1.030976168715973</v>
       </c>
       <c r="D4">
-        <v>1.024718886299029</v>
+        <v>1.03380123363722</v>
       </c>
       <c r="E4">
-        <v>1.016931240931962</v>
+        <v>1.052495619388656</v>
       </c>
       <c r="F4">
-        <v>1.021537500698312</v>
+        <v>1.057527407178491</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044206262572748</v>
+        <v>1.034383384410508</v>
       </c>
       <c r="J4">
-        <v>1.030365842412457</v>
+        <v>1.035531224320419</v>
       </c>
       <c r="K4">
-        <v>1.034527856189697</v>
+        <v>1.036290771536585</v>
       </c>
       <c r="L4">
-        <v>1.026829526813451</v>
+        <v>1.054938571842563</v>
       </c>
       <c r="M4">
-        <v>1.031382754638337</v>
+        <v>1.059958123164121</v>
       </c>
       <c r="N4">
-        <v>1.031829080093296</v>
+        <v>1.037001797436046</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012265648805218</v>
+        <v>1.03119546872315</v>
       </c>
       <c r="D5">
-        <v>1.02542697254513</v>
+        <v>1.033958216791335</v>
       </c>
       <c r="E5">
-        <v>1.018329198171238</v>
+        <v>1.052825012646169</v>
       </c>
       <c r="F5">
-        <v>1.023000764418492</v>
+        <v>1.057872064057307</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044454228410769</v>
+        <v>1.034423789237679</v>
       </c>
       <c r="J5">
-        <v>1.030913790695416</v>
+        <v>1.035652660446597</v>
       </c>
       <c r="K5">
-        <v>1.035010747178142</v>
+        <v>1.036395465886724</v>
       </c>
       <c r="L5">
-        <v>1.027992143126713</v>
+        <v>1.055216295707601</v>
       </c>
       <c r="M5">
-        <v>1.032611449543035</v>
+        <v>1.060251349241044</v>
       </c>
       <c r="N5">
-        <v>1.032377806525668</v>
+        <v>1.037123406015451</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01243627162771</v>
+        <v>1.031232293622147</v>
       </c>
       <c r="D6">
-        <v>1.025545433756246</v>
+        <v>1.033984577560336</v>
       </c>
       <c r="E6">
-        <v>1.018563035911762</v>
+        <v>1.052880332806252</v>
       </c>
       <c r="F6">
-        <v>1.023245521318279</v>
+        <v>1.057929947509245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044495569960861</v>
+        <v>1.034430558287151</v>
       </c>
       <c r="J6">
-        <v>1.031005374283172</v>
+        <v>1.035673044246766</v>
       </c>
       <c r="K6">
-        <v>1.035091444523474</v>
+        <v>1.03641303733956</v>
       </c>
       <c r="L6">
-        <v>1.02818656327273</v>
+        <v>1.055262932345295</v>
       </c>
       <c r="M6">
-        <v>1.032816921397675</v>
+        <v>1.060300589368316</v>
       </c>
       <c r="N6">
-        <v>1.032469520172623</v>
+        <v>1.037143818762954</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011259164004605</v>
+        <v>1.030979098780504</v>
       </c>
       <c r="D7">
-        <v>1.02472837669522</v>
+        <v>1.033803331078157</v>
       </c>
       <c r="E7">
-        <v>1.016949980239726</v>
+        <v>1.052500019847786</v>
       </c>
       <c r="F7">
-        <v>1.021557115741105</v>
+        <v>1.057532011559858</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044209595599802</v>
+        <v>1.034383925313154</v>
       </c>
       <c r="J7">
-        <v>1.030373192346315</v>
+        <v>1.035532847347927</v>
       </c>
       <c r="K7">
-        <v>1.03453433431519</v>
+        <v>1.036292170948713</v>
       </c>
       <c r="L7">
-        <v>1.026845114907159</v>
+        <v>1.054942282428982</v>
       </c>
       <c r="M7">
-        <v>1.031399228585965</v>
+        <v>1.059962040851596</v>
       </c>
       <c r="N7">
-        <v>1.031836440464904</v>
+        <v>1.037003422768439</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006239959578751</v>
+        <v>1.029921295425142</v>
       </c>
       <c r="D8">
-        <v>1.021249591487511</v>
+        <v>1.033046137506191</v>
       </c>
       <c r="E8">
-        <v>1.010074963358575</v>
+        <v>1.050912335160039</v>
       </c>
       <c r="F8">
-        <v>1.014360269494572</v>
+        <v>1.055870732779161</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04297115914247</v>
+        <v>1.034186825411779</v>
       </c>
       <c r="J8">
-        <v>1.027668689420177</v>
+        <v>1.034946005093998</v>
       </c>
       <c r="K8">
-        <v>1.032149215591962</v>
+        <v>1.03578593498589</v>
       </c>
       <c r="L8">
-        <v>1.021120170599764</v>
+        <v>1.05360282199782</v>
       </c>
       <c r="M8">
-        <v>1.025349172724463</v>
+        <v>1.058547854567809</v>
       </c>
       <c r="N8">
-        <v>1.029128096834401</v>
+        <v>1.036415747131198</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9969952470768998</v>
+        <v>1.028059314083872</v>
       </c>
       <c r="D9">
-        <v>1.014864809157413</v>
+        <v>1.031713419171966</v>
       </c>
       <c r="E9">
-        <v>0.9974126547137282</v>
+        <v>1.048121982580006</v>
       </c>
       <c r="F9">
-        <v>1.001102753452835</v>
+        <v>1.052950952678834</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04061907751629</v>
+        <v>1.033831319697766</v>
       </c>
       <c r="J9">
-        <v>1.022654558933206</v>
+        <v>1.033908796392102</v>
       </c>
       <c r="K9">
-        <v>1.027721232537478</v>
+        <v>1.034890044028759</v>
       </c>
       <c r="L9">
-        <v>1.010547849735695</v>
+        <v>1.051245517422221</v>
       </c>
       <c r="M9">
-        <v>1.014177964552681</v>
+        <v>1.056059208019549</v>
       </c>
       <c r="N9">
-        <v>1.024106845707008</v>
+        <v>1.035377065473976</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9905358391361513</v>
+        <v>1.02681941303117</v>
       </c>
       <c r="D10">
-        <v>1.010421896782868</v>
+        <v>1.030826069319977</v>
       </c>
       <c r="E10">
-        <v>0.9885540528102152</v>
+        <v>1.046266647465708</v>
       </c>
       <c r="F10">
-        <v>0.9918262155243334</v>
+        <v>1.05100950513811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038929402670548</v>
+        <v>1.033588839000447</v>
       </c>
       <c r="J10">
-        <v>1.019130050338469</v>
+        <v>1.033215278305085</v>
       </c>
       <c r="K10">
-        <v>1.024605496161209</v>
+        <v>1.034290256165655</v>
       </c>
       <c r="L10">
-        <v>1.003133089010912</v>
+        <v>1.049675961139127</v>
       </c>
       <c r="M10">
-        <v>1.006344635273185</v>
+        <v>1.054402319944623</v>
       </c>
       <c r="N10">
-        <v>1.0205773319058</v>
+        <v>1.034682562511727</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9876620014905608</v>
+        <v>1.026282874032505</v>
       </c>
       <c r="D11">
-        <v>1.008450202044331</v>
+        <v>1.030442122557966</v>
       </c>
       <c r="E11">
-        <v>0.9846072595048028</v>
+        <v>1.045464418972229</v>
       </c>
       <c r="F11">
-        <v>0.9876928906551175</v>
+        <v>1.050170030199495</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038167094732592</v>
+        <v>1.033482549351575</v>
       </c>
       <c r="J11">
-        <v>1.017557218414945</v>
+        <v>1.03291450257465</v>
       </c>
       <c r="K11">
-        <v>1.023214500199932</v>
+        <v>1.034029953122381</v>
       </c>
       <c r="L11">
-        <v>0.9998254180380183</v>
+        <v>1.048996787349339</v>
       </c>
       <c r="M11">
-        <v>1.002850693992388</v>
+        <v>1.053685385917229</v>
       </c>
       <c r="N11">
-        <v>1.019002266380538</v>
+        <v>1.034381359645256</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.986582376570856</v>
+        <v>1.026083632770536</v>
       </c>
       <c r="D12">
-        <v>1.007710296798548</v>
+        <v>1.030299551358551</v>
       </c>
       <c r="E12">
-        <v>0.9831234557910549</v>
+        <v>1.045166606485981</v>
       </c>
       <c r="F12">
-        <v>0.9861389140172709</v>
+        <v>1.049858388871206</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037879164605026</v>
+        <v>1.033442874723908</v>
       </c>
       <c r="J12">
-        <v>1.01696565347643</v>
+        <v>1.032802710100841</v>
       </c>
       <c r="K12">
-        <v>1.022691255631644</v>
+        <v>1.033933177074057</v>
       </c>
       <c r="L12">
-        <v>0.9985812870194886</v>
+        <v>1.048744579444535</v>
       </c>
       <c r="M12">
-        <v>1.001536577387723</v>
+        <v>1.05341916051729</v>
       </c>
       <c r="N12">
-        <v>1.018409861351957</v>
+        <v>1.034269408413311</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9868145199332446</v>
+        <v>1.026126368270718</v>
       </c>
       <c r="D13">
-        <v>1.00786935538375</v>
+        <v>1.030330131363491</v>
       </c>
       <c r="E13">
-        <v>0.9834425606749212</v>
+        <v>1.045230480557123</v>
       </c>
       <c r="F13">
-        <v>0.9864731122266787</v>
+        <v>1.049925228997529</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03794114549811</v>
+        <v>1.033451393833849</v>
       </c>
       <c r="J13">
-        <v>1.017092884099168</v>
+        <v>1.032826693164725</v>
       </c>
       <c r="K13">
-        <v>1.022803795200423</v>
+        <v>1.033953939828943</v>
       </c>
       <c r="L13">
-        <v>0.9988488753021878</v>
+        <v>1.048798675855269</v>
       </c>
       <c r="M13">
-        <v>1.00181921455491</v>
+        <v>1.053476263349785</v>
       </c>
       <c r="N13">
-        <v>1.018537272656773</v>
+        <v>1.034293425535897</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9875730109341916</v>
+        <v>1.026266403595322</v>
       </c>
       <c r="D14">
-        <v>1.008389196880246</v>
+        <v>1.030430336678017</v>
       </c>
       <c r="E14">
-        <v>0.9844849775071018</v>
+        <v>1.045439798218496</v>
       </c>
       <c r="F14">
-        <v>0.987564826542034</v>
+        <v>1.050144266223896</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038143392758956</v>
+        <v>1.033479273787622</v>
       </c>
       <c r="J14">
-        <v>1.017508471300385</v>
+        <v>1.032905263217077</v>
       </c>
       <c r="K14">
-        <v>1.023171384274714</v>
+        <v>1.034021955372285</v>
       </c>
       <c r="L14">
-        <v>0.9997228999634361</v>
+        <v>1.048975938393222</v>
       </c>
       <c r="M14">
-        <v>1.00274240738489</v>
+        <v>1.053663378100059</v>
       </c>
       <c r="N14">
-        <v>1.018953450039484</v>
+        <v>1.034372107166734</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9880387129983602</v>
+        <v>1.026352691066854</v>
       </c>
       <c r="D15">
-        <v>1.008708480143645</v>
+        <v>1.030492082315609</v>
       </c>
       <c r="E15">
-        <v>0.985124852715878</v>
+        <v>1.045568788354875</v>
       </c>
       <c r="F15">
-        <v>0.9882349564502668</v>
+        <v>1.050279245719946</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038267366019306</v>
+        <v>1.033496425865312</v>
       </c>
       <c r="J15">
-        <v>1.017763544732995</v>
+        <v>1.032953663438804</v>
       </c>
       <c r="K15">
-        <v>1.023396989244675</v>
+        <v>1.034063850370785</v>
       </c>
       <c r="L15">
-        <v>1.000259330238549</v>
+        <v>1.049085164611534</v>
       </c>
       <c r="M15">
-        <v>1.003309024963332</v>
+        <v>1.053778675698696</v>
       </c>
       <c r="N15">
-        <v>1.019208885705626</v>
+        <v>1.034420576122328</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9907248960264441</v>
+        <v>1.02685502875497</v>
       </c>
       <c r="D16">
-        <v>1.010551714643714</v>
+        <v>1.030851556655866</v>
       </c>
       <c r="E16">
-        <v>0.9888135572620772</v>
+        <v>1.046319912746692</v>
       </c>
       <c r="F16">
-        <v>0.9920979779975431</v>
+        <v>1.051065243204018</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038979334376468</v>
+        <v>1.033595865873812</v>
       </c>
       <c r="J16">
-        <v>1.019233422579654</v>
+        <v>1.033235229801888</v>
       </c>
       <c r="K16">
-        <v>1.024696906764947</v>
+        <v>1.034307519245554</v>
       </c>
       <c r="L16">
-        <v>1.003350485642337</v>
+        <v>1.049721045173369</v>
       </c>
       <c r="M16">
-        <v>1.006574284683531</v>
+        <v>1.05444991116672</v>
       </c>
       <c r="N16">
-        <v>1.020680850947425</v>
+        <v>1.034702542341944</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9923888731690617</v>
+        <v>1.027170225471435</v>
       </c>
       <c r="D17">
-        <v>1.011694876866352</v>
+        <v>1.031077121802392</v>
       </c>
       <c r="E17">
-        <v>0.9910969153544715</v>
+        <v>1.046791378798864</v>
       </c>
       <c r="F17">
-        <v>0.9944891564912955</v>
+        <v>1.051558595160994</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03941760815865</v>
+        <v>1.033657895883688</v>
       </c>
       <c r="J17">
-        <v>1.020142710818406</v>
+        <v>1.033411721589404</v>
       </c>
       <c r="K17">
-        <v>1.025500913327396</v>
+        <v>1.034460208699003</v>
       </c>
       <c r="L17">
-        <v>1.005262869692001</v>
+        <v>1.050120037354196</v>
       </c>
       <c r="M17">
-        <v>1.008594505665094</v>
+        <v>1.05487109532503</v>
       </c>
       <c r="N17">
-        <v>1.021591430479772</v>
+        <v>1.034879284768042</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9933520689015997</v>
+        <v>1.027354107721145</v>
       </c>
       <c r="D18">
-        <v>1.012357067771362</v>
+        <v>1.031208717209523</v>
       </c>
       <c r="E18">
-        <v>0.9924181336282422</v>
+        <v>1.047066487399588</v>
       </c>
       <c r="F18">
-        <v>0.9958727315402193</v>
+        <v>1.051846473375603</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039670298801185</v>
+        <v>1.033693952063816</v>
       </c>
       <c r="J18">
-        <v>1.020668601203448</v>
+        <v>1.033514620105737</v>
       </c>
       <c r="K18">
-        <v>1.025965857475691</v>
+        <v>1.034549212798167</v>
       </c>
       <c r="L18">
-        <v>1.006369036052752</v>
+        <v>1.050352806642386</v>
       </c>
       <c r="M18">
-        <v>1.00976308935546</v>
+        <v>1.055116814120361</v>
       </c>
       <c r="N18">
-        <v>1.022118067689482</v>
+        <v>1.034982329412071</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9936792606795558</v>
+        <v>1.027416812435172</v>
       </c>
       <c r="D19">
-        <v>1.012582087978509</v>
+        <v>1.031253592391507</v>
       </c>
       <c r="E19">
-        <v>0.9928668650848907</v>
+        <v>1.047160311082857</v>
       </c>
       <c r="F19">
-        <v>0.9963426361182411</v>
+        <v>1.051944651834331</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039755964804447</v>
+        <v>1.033706225094021</v>
       </c>
       <c r="J19">
-        <v>1.02084716562344</v>
+        <v>1.033549697986875</v>
       </c>
       <c r="K19">
-        <v>1.026123717783994</v>
+        <v>1.034579551188262</v>
       </c>
       <c r="L19">
-        <v>1.006744660855287</v>
+        <v>1.050432182424718</v>
       </c>
       <c r="M19">
-        <v>1.010159916278585</v>
+        <v>1.05520060624705</v>
       </c>
       <c r="N19">
-        <v>1.022296885691433</v>
+        <v>1.035017457107824</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9922111111312815</v>
+        <v>1.02713640438994</v>
       </c>
       <c r="D20">
-        <v>1.011572704148693</v>
+        <v>1.031052917986302</v>
       </c>
       <c r="E20">
-        <v>0.990853039518651</v>
+        <v>1.046740783537927</v>
       </c>
       <c r="F20">
-        <v>0.9942337680379508</v>
+        <v>1.051505651342371</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03937089152873</v>
+        <v>1.033651253563658</v>
       </c>
       <c r="J20">
-        <v>1.020045618703047</v>
+        <v>1.033392790459287</v>
       </c>
       <c r="K20">
-        <v>1.025415068708232</v>
+        <v>1.034443832462968</v>
       </c>
       <c r="L20">
-        <v>1.005058656928833</v>
+        <v>1.050077224734076</v>
       </c>
       <c r="M20">
-        <v>1.0083787731765</v>
+        <v>1.054825901166784</v>
       </c>
       <c r="N20">
-        <v>1.021494200482473</v>
+        <v>1.034860326753549</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9873499948079885</v>
+        <v>1.026225165204154</v>
       </c>
       <c r="D21">
-        <v>1.008236327196028</v>
+        <v>1.030400827492092</v>
       </c>
       <c r="E21">
-        <v>0.9841785122352156</v>
+        <v>1.045378154674415</v>
       </c>
       <c r="F21">
-        <v>0.98724386930103</v>
+        <v>1.050079760340388</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038083969201904</v>
+        <v>1.033471069185433</v>
       </c>
       <c r="J21">
-        <v>1.01738629675532</v>
+        <v>1.032882128247721</v>
       </c>
       <c r="K21">
-        <v>1.0230633220566</v>
+        <v>1.034001928909694</v>
       </c>
       <c r="L21">
-        <v>0.9994659576753856</v>
+        <v>1.048923737137479</v>
       </c>
       <c r="M21">
-        <v>1.002471008630271</v>
+        <v>1.053608275382568</v>
       </c>
       <c r="N21">
-        <v>1.018831101992552</v>
+        <v>1.034348939343068</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9842229697919997</v>
+        <v>1.025652541410212</v>
       </c>
       <c r="D22">
-        <v>1.006094864589995</v>
+        <v>1.029991085985247</v>
       </c>
       <c r="E22">
-        <v>0.9798784282104528</v>
+        <v>1.044522404105975</v>
       </c>
       <c r="F22">
-        <v>0.9827403396031849</v>
+        <v>1.049184269921994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037247111281799</v>
+        <v>1.033356658392681</v>
       </c>
       <c r="J22">
-        <v>1.01567159792116</v>
+        <v>1.032560644406314</v>
       </c>
       <c r="K22">
-        <v>1.021546540294468</v>
+        <v>1.033723578429391</v>
       </c>
       <c r="L22">
-        <v>0.995859321097053</v>
+        <v>1.048198883739997</v>
       </c>
       <c r="M22">
-        <v>0.9986616469885522</v>
+        <v>1.052843144041215</v>
       </c>
       <c r="N22">
-        <v>1.017113968089369</v>
+        <v>1.034026998957732</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9858875746908093</v>
+        <v>1.025956070486864</v>
       </c>
       <c r="D23">
-        <v>1.007234359746903</v>
+        <v>1.03020827319312</v>
       </c>
       <c r="E23">
-        <v>0.9821681967729743</v>
+        <v>1.044975960313371</v>
       </c>
       <c r="F23">
-        <v>0.9851384657548704</v>
+        <v>1.049658889599028</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037693432089147</v>
+        <v>1.033417415886045</v>
       </c>
       <c r="J23">
-        <v>1.016584753916536</v>
+        <v>1.032731107688504</v>
       </c>
       <c r="K23">
-        <v>1.02235432867824</v>
+        <v>1.03387118516341</v>
       </c>
       <c r="L23">
-        <v>0.9977801585317078</v>
+        <v>1.048583105532901</v>
       </c>
       <c r="M23">
-        <v>1.000690406359011</v>
+        <v>1.053248713332906</v>
       </c>
       <c r="N23">
-        <v>1.018028420870998</v>
+        <v>1.034197704317335</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9922914568883909</v>
+        <v>1.027151686577954</v>
       </c>
       <c r="D24">
-        <v>1.011627922920727</v>
+        <v>1.031063854565462</v>
       </c>
       <c r="E24">
-        <v>0.9909632692663741</v>
+        <v>1.046763645016974</v>
       </c>
       <c r="F24">
-        <v>0.9943492014854877</v>
+        <v>1.051529574021377</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039392009857918</v>
+        <v>1.033654255328052</v>
       </c>
       <c r="J24">
-        <v>1.020089504277685</v>
+        <v>1.033401344764795</v>
       </c>
       <c r="K24">
-        <v>1.025453870597165</v>
+        <v>1.034451232355566</v>
       </c>
       <c r="L24">
-        <v>1.005150960541507</v>
+        <v>1.050096569778342</v>
       </c>
       <c r="M24">
-        <v>1.008476283544158</v>
+        <v>1.05484632230924</v>
       </c>
       <c r="N24">
-        <v>1.021538148379661</v>
+        <v>1.034868893207152</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9994353476007319</v>
+        <v>1.028540435975814</v>
       </c>
       <c r="D25">
-        <v>1.016547113511655</v>
+        <v>1.032057765981371</v>
       </c>
       <c r="E25">
-        <v>1.000755874287979</v>
+        <v>1.048842488889939</v>
       </c>
       <c r="F25">
-        <v>1.004603399022739</v>
+        <v>1.053704888786202</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041248006111489</v>
+        <v>1.033924193980773</v>
       </c>
       <c r="J25">
-        <v>1.023981729505277</v>
+        <v>1.034177303954264</v>
       </c>
       <c r="K25">
-        <v>1.028893874829645</v>
+        <v>1.035122102673543</v>
       </c>
       <c r="L25">
-        <v>1.013342467603233</v>
+        <v>1.051854585677245</v>
       </c>
       <c r="M25">
-        <v>1.017130671007154</v>
+        <v>1.056702191205472</v>
       </c>
       <c r="N25">
-        <v>1.025435901013521</v>
+        <v>1.035645954347674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029649106843733</v>
+        <v>1.004921588717532</v>
       </c>
       <c r="D2">
-        <v>1.032851307206566</v>
+        <v>1.020337246821745</v>
       </c>
       <c r="E2">
-        <v>1.050504100679194</v>
+        <v>1.008269561663007</v>
       </c>
       <c r="F2">
-        <v>1.055443569404625</v>
+        <v>1.012470185255864</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034135526793734</v>
+        <v>1.042641067956292</v>
       </c>
       <c r="J2">
-        <v>1.034794714404582</v>
+        <v>1.026956085810206</v>
       </c>
       <c r="K2">
-        <v>1.035655346612106</v>
+        <v>1.031520339783266</v>
       </c>
       <c r="L2">
-        <v>1.053258194707174</v>
+        <v>1.019614878136444</v>
       </c>
       <c r="M2">
-        <v>1.058184012321561</v>
+        <v>1.023758481866942</v>
       </c>
       <c r="N2">
-        <v>1.036264241591649</v>
+        <v>1.028414481245567</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030454664576612</v>
+        <v>1.008791358952844</v>
       </c>
       <c r="D3">
-        <v>1.033427927279874</v>
+        <v>1.023016899644307</v>
       </c>
       <c r="E3">
-        <v>1.051712646146979</v>
+        <v>1.013569249502173</v>
       </c>
       <c r="F3">
-        <v>1.056708145356397</v>
+        <v>1.018018260746652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034286662105933</v>
+        <v>1.043604424640892</v>
       </c>
       <c r="J3">
-        <v>1.035242129110695</v>
+        <v>1.029045198335778</v>
       </c>
       <c r="K3">
-        <v>1.036041445900356</v>
+        <v>1.033363507492834</v>
       </c>
       <c r="L3">
-        <v>1.054278179386958</v>
+        <v>1.024031404006073</v>
       </c>
       <c r="M3">
-        <v>1.059260880229228</v>
+        <v>1.028425670735081</v>
       </c>
       <c r="N3">
-        <v>1.036712291677964</v>
+        <v>1.030506560550548</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030976168715973</v>
+        <v>1.01124548765645</v>
       </c>
       <c r="D4">
-        <v>1.03380123363722</v>
+        <v>1.02471888629903</v>
       </c>
       <c r="E4">
-        <v>1.052495619388656</v>
+        <v>1.016931240931963</v>
       </c>
       <c r="F4">
-        <v>1.057527407178491</v>
+        <v>1.021537500698313</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034383384410508</v>
+        <v>1.044206262572748</v>
       </c>
       <c r="J4">
-        <v>1.035531224320419</v>
+        <v>1.030365842412457</v>
       </c>
       <c r="K4">
-        <v>1.036290771536585</v>
+        <v>1.034527856189698</v>
       </c>
       <c r="L4">
-        <v>1.054938571842563</v>
+        <v>1.026829526813451</v>
       </c>
       <c r="M4">
-        <v>1.059958123164121</v>
+        <v>1.031382754638337</v>
       </c>
       <c r="N4">
-        <v>1.037001797436046</v>
+        <v>1.031829080093297</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03119546872315</v>
+        <v>1.012265648805217</v>
       </c>
       <c r="D5">
-        <v>1.033958216791335</v>
+        <v>1.025426972545129</v>
       </c>
       <c r="E5">
-        <v>1.052825012646169</v>
+        <v>1.018329198171237</v>
       </c>
       <c r="F5">
-        <v>1.057872064057307</v>
+        <v>1.023000764418491</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034423789237679</v>
+        <v>1.044454228410769</v>
       </c>
       <c r="J5">
-        <v>1.035652660446597</v>
+        <v>1.030913790695416</v>
       </c>
       <c r="K5">
-        <v>1.036395465886724</v>
+        <v>1.035010747178142</v>
       </c>
       <c r="L5">
-        <v>1.055216295707601</v>
+        <v>1.027992143126712</v>
       </c>
       <c r="M5">
-        <v>1.060251349241044</v>
+        <v>1.032611449543035</v>
       </c>
       <c r="N5">
-        <v>1.037123406015451</v>
+        <v>1.032377806525668</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031232293622147</v>
+        <v>1.012436271627709</v>
       </c>
       <c r="D6">
-        <v>1.033984577560336</v>
+        <v>1.025545433756245</v>
       </c>
       <c r="E6">
-        <v>1.052880332806252</v>
+        <v>1.018563035911761</v>
       </c>
       <c r="F6">
-        <v>1.057929947509245</v>
+        <v>1.023245521318278</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034430558287151</v>
+        <v>1.044495569960861</v>
       </c>
       <c r="J6">
-        <v>1.035673044246766</v>
+        <v>1.03100537428317</v>
       </c>
       <c r="K6">
-        <v>1.03641303733956</v>
+        <v>1.035091444523473</v>
       </c>
       <c r="L6">
-        <v>1.055262932345295</v>
+        <v>1.028186563272729</v>
       </c>
       <c r="M6">
-        <v>1.060300589368316</v>
+        <v>1.032816921397674</v>
       </c>
       <c r="N6">
-        <v>1.037143818762954</v>
+        <v>1.032469520172622</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030979098780504</v>
+        <v>1.011259164004606</v>
       </c>
       <c r="D7">
-        <v>1.033803331078157</v>
+        <v>1.02472837669522</v>
       </c>
       <c r="E7">
-        <v>1.052500019847786</v>
+        <v>1.016949980239726</v>
       </c>
       <c r="F7">
-        <v>1.057532011559858</v>
+        <v>1.021557115741105</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034383925313154</v>
+        <v>1.044209595599802</v>
       </c>
       <c r="J7">
-        <v>1.035532847347927</v>
+        <v>1.030373192346315</v>
       </c>
       <c r="K7">
-        <v>1.036292170948713</v>
+        <v>1.03453433431519</v>
       </c>
       <c r="L7">
-        <v>1.054942282428982</v>
+        <v>1.026845114907159</v>
       </c>
       <c r="M7">
-        <v>1.059962040851596</v>
+        <v>1.031399228585965</v>
       </c>
       <c r="N7">
-        <v>1.037003422768439</v>
+        <v>1.031836440464904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029921295425142</v>
+        <v>1.006239959578751</v>
       </c>
       <c r="D8">
-        <v>1.033046137506191</v>
+        <v>1.02124959148751</v>
       </c>
       <c r="E8">
-        <v>1.050912335160039</v>
+        <v>1.010074963358574</v>
       </c>
       <c r="F8">
-        <v>1.055870732779161</v>
+        <v>1.014360269494571</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034186825411779</v>
+        <v>1.042971159142469</v>
       </c>
       <c r="J8">
-        <v>1.034946005093998</v>
+        <v>1.027668689420177</v>
       </c>
       <c r="K8">
-        <v>1.03578593498589</v>
+        <v>1.032149215591961</v>
       </c>
       <c r="L8">
-        <v>1.05360282199782</v>
+        <v>1.021120170599763</v>
       </c>
       <c r="M8">
-        <v>1.058547854567809</v>
+        <v>1.025349172724462</v>
       </c>
       <c r="N8">
-        <v>1.036415747131198</v>
+        <v>1.0291280968344</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028059314083872</v>
+        <v>0.9969952470768993</v>
       </c>
       <c r="D9">
-        <v>1.031713419171966</v>
+        <v>1.014864809157413</v>
       </c>
       <c r="E9">
-        <v>1.048121982580006</v>
+        <v>0.9974126547137279</v>
       </c>
       <c r="F9">
-        <v>1.052950952678834</v>
+        <v>1.001102753452835</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033831319697766</v>
+        <v>1.04061907751629</v>
       </c>
       <c r="J9">
-        <v>1.033908796392102</v>
+        <v>1.022654558933205</v>
       </c>
       <c r="K9">
-        <v>1.034890044028759</v>
+        <v>1.027721232537477</v>
       </c>
       <c r="L9">
-        <v>1.051245517422221</v>
+        <v>1.010547849735695</v>
       </c>
       <c r="M9">
-        <v>1.056059208019549</v>
+        <v>1.014177964552681</v>
       </c>
       <c r="N9">
-        <v>1.035377065473976</v>
+        <v>1.024106845707008</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02681941303117</v>
+        <v>0.9905358391361521</v>
       </c>
       <c r="D10">
-        <v>1.030826069319977</v>
+        <v>1.010421896782869</v>
       </c>
       <c r="E10">
-        <v>1.046266647465708</v>
+        <v>0.9885540528102166</v>
       </c>
       <c r="F10">
-        <v>1.05100950513811</v>
+        <v>0.9918262155243349</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033588839000447</v>
+        <v>1.038929402670548</v>
       </c>
       <c r="J10">
-        <v>1.033215278305085</v>
+        <v>1.019130050338469</v>
       </c>
       <c r="K10">
-        <v>1.034290256165655</v>
+        <v>1.02460549616121</v>
       </c>
       <c r="L10">
-        <v>1.049675961139127</v>
+        <v>1.003133089010914</v>
       </c>
       <c r="M10">
-        <v>1.054402319944623</v>
+        <v>1.006344635273187</v>
       </c>
       <c r="N10">
-        <v>1.034682562511727</v>
+        <v>1.0205773319058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026282874032505</v>
+        <v>0.9876620014905609</v>
       </c>
       <c r="D11">
-        <v>1.030442122557966</v>
+        <v>1.008450202044331</v>
       </c>
       <c r="E11">
-        <v>1.045464418972229</v>
+        <v>0.9846072595048018</v>
       </c>
       <c r="F11">
-        <v>1.050170030199495</v>
+        <v>0.9876928906551169</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033482549351575</v>
+        <v>1.038167094732592</v>
       </c>
       <c r="J11">
-        <v>1.03291450257465</v>
+        <v>1.017557218414945</v>
       </c>
       <c r="K11">
-        <v>1.034029953122381</v>
+        <v>1.023214500199932</v>
       </c>
       <c r="L11">
-        <v>1.048996787349339</v>
+        <v>0.9998254180380176</v>
       </c>
       <c r="M11">
-        <v>1.053685385917229</v>
+        <v>1.002850693992388</v>
       </c>
       <c r="N11">
-        <v>1.034381359645256</v>
+        <v>1.019002266380538</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026083632770536</v>
+        <v>0.9865823765708558</v>
       </c>
       <c r="D12">
-        <v>1.030299551358551</v>
+        <v>1.007710296798548</v>
       </c>
       <c r="E12">
-        <v>1.045166606485981</v>
+        <v>0.9831234557910556</v>
       </c>
       <c r="F12">
-        <v>1.049858388871206</v>
+        <v>0.9861389140172718</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033442874723908</v>
+        <v>1.037879164605026</v>
       </c>
       <c r="J12">
-        <v>1.032802710100841</v>
+        <v>1.01696565347643</v>
       </c>
       <c r="K12">
-        <v>1.033933177074057</v>
+        <v>1.022691255631643</v>
       </c>
       <c r="L12">
-        <v>1.048744579444535</v>
+        <v>0.9985812870194893</v>
       </c>
       <c r="M12">
-        <v>1.05341916051729</v>
+        <v>1.001536577387724</v>
       </c>
       <c r="N12">
-        <v>1.034269408413311</v>
+        <v>1.018409861351957</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026126368270718</v>
+        <v>0.9868145199332443</v>
       </c>
       <c r="D13">
-        <v>1.030330131363491</v>
+        <v>1.00786935538375</v>
       </c>
       <c r="E13">
-        <v>1.045230480557123</v>
+        <v>0.9834425606749203</v>
       </c>
       <c r="F13">
-        <v>1.049925228997529</v>
+        <v>0.9864731122266779</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033451393833849</v>
+        <v>1.037941145498109</v>
       </c>
       <c r="J13">
-        <v>1.032826693164725</v>
+        <v>1.017092884099168</v>
       </c>
       <c r="K13">
-        <v>1.033953939828943</v>
+        <v>1.022803795200423</v>
       </c>
       <c r="L13">
-        <v>1.048798675855269</v>
+        <v>0.9988488753021872</v>
       </c>
       <c r="M13">
-        <v>1.053476263349785</v>
+        <v>1.001819214554909</v>
       </c>
       <c r="N13">
-        <v>1.034293425535897</v>
+        <v>1.018537272656773</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026266403595322</v>
+        <v>0.987573010934191</v>
       </c>
       <c r="D14">
-        <v>1.030430336678017</v>
+        <v>1.008389196880245</v>
       </c>
       <c r="E14">
-        <v>1.045439798218496</v>
+        <v>0.9844849775071021</v>
       </c>
       <c r="F14">
-        <v>1.050144266223896</v>
+        <v>0.9875648265420341</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033479273787622</v>
+        <v>1.038143392758955</v>
       </c>
       <c r="J14">
-        <v>1.032905263217077</v>
+        <v>1.017508471300384</v>
       </c>
       <c r="K14">
-        <v>1.034021955372285</v>
+        <v>1.023171384274713</v>
       </c>
       <c r="L14">
-        <v>1.048975938393222</v>
+        <v>0.9997228999634362</v>
       </c>
       <c r="M14">
-        <v>1.053663378100059</v>
+        <v>1.00274240738489</v>
       </c>
       <c r="N14">
-        <v>1.034372107166734</v>
+        <v>1.018953450039484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026352691066854</v>
+        <v>0.9880387129983597</v>
       </c>
       <c r="D15">
-        <v>1.030492082315609</v>
+        <v>1.008708480143645</v>
       </c>
       <c r="E15">
-        <v>1.045568788354875</v>
+        <v>0.985124852715878</v>
       </c>
       <c r="F15">
-        <v>1.050279245719946</v>
+        <v>0.9882349564502667</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033496425865312</v>
+        <v>1.038267366019306</v>
       </c>
       <c r="J15">
-        <v>1.032953663438804</v>
+        <v>1.017763544732995</v>
       </c>
       <c r="K15">
-        <v>1.034063850370785</v>
+        <v>1.023396989244675</v>
       </c>
       <c r="L15">
-        <v>1.049085164611534</v>
+        <v>1.000259330238549</v>
       </c>
       <c r="M15">
-        <v>1.053778675698696</v>
+        <v>1.003309024963332</v>
       </c>
       <c r="N15">
-        <v>1.034420576122328</v>
+        <v>1.019208885705625</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02685502875497</v>
+        <v>0.9907248960264442</v>
       </c>
       <c r="D16">
-        <v>1.030851556655866</v>
+        <v>1.010551714643714</v>
       </c>
       <c r="E16">
-        <v>1.046319912746692</v>
+        <v>0.988813557262078</v>
       </c>
       <c r="F16">
-        <v>1.051065243204018</v>
+        <v>0.9920979779975437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033595865873812</v>
+        <v>1.038979334376468</v>
       </c>
       <c r="J16">
-        <v>1.033235229801888</v>
+        <v>1.019233422579654</v>
       </c>
       <c r="K16">
-        <v>1.034307519245554</v>
+        <v>1.024696906764947</v>
       </c>
       <c r="L16">
-        <v>1.049721045173369</v>
+        <v>1.003350485642338</v>
       </c>
       <c r="M16">
-        <v>1.05444991116672</v>
+        <v>1.006574284683532</v>
       </c>
       <c r="N16">
-        <v>1.034702542341944</v>
+        <v>1.020680850947425</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027170225471435</v>
+        <v>0.9923888731690618</v>
       </c>
       <c r="D17">
-        <v>1.031077121802392</v>
+        <v>1.011694876866352</v>
       </c>
       <c r="E17">
-        <v>1.046791378798864</v>
+        <v>0.9910969153544719</v>
       </c>
       <c r="F17">
-        <v>1.051558595160994</v>
+        <v>0.9944891564912957</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033657895883688</v>
+        <v>1.03941760815865</v>
       </c>
       <c r="J17">
-        <v>1.033411721589404</v>
+        <v>1.020142710818406</v>
       </c>
       <c r="K17">
-        <v>1.034460208699003</v>
+        <v>1.025500913327397</v>
       </c>
       <c r="L17">
-        <v>1.050120037354196</v>
+        <v>1.005262869692002</v>
       </c>
       <c r="M17">
-        <v>1.05487109532503</v>
+        <v>1.008594505665094</v>
       </c>
       <c r="N17">
-        <v>1.034879284768042</v>
+        <v>1.021591430479772</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027354107721145</v>
+        <v>0.9933520689015993</v>
       </c>
       <c r="D18">
-        <v>1.031208717209523</v>
+        <v>1.012357067771362</v>
       </c>
       <c r="E18">
-        <v>1.047066487399588</v>
+        <v>0.9924181336282422</v>
       </c>
       <c r="F18">
-        <v>1.051846473375603</v>
+        <v>0.9958727315402192</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033693952063816</v>
+        <v>1.039670298801185</v>
       </c>
       <c r="J18">
-        <v>1.033514620105737</v>
+        <v>1.020668601203448</v>
       </c>
       <c r="K18">
-        <v>1.034549212798167</v>
+        <v>1.02596585747569</v>
       </c>
       <c r="L18">
-        <v>1.050352806642386</v>
+        <v>1.006369036052751</v>
       </c>
       <c r="M18">
-        <v>1.055116814120361</v>
+        <v>1.00976308935546</v>
       </c>
       <c r="N18">
-        <v>1.034982329412071</v>
+        <v>1.022118067689481</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027416812435172</v>
+        <v>0.9936792606795554</v>
       </c>
       <c r="D19">
-        <v>1.031253592391507</v>
+        <v>1.012582087978509</v>
       </c>
       <c r="E19">
-        <v>1.047160311082857</v>
+        <v>0.9928668650848906</v>
       </c>
       <c r="F19">
-        <v>1.051944651834331</v>
+        <v>0.996342636118241</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033706225094021</v>
+        <v>1.039755964804447</v>
       </c>
       <c r="J19">
-        <v>1.033549697986875</v>
+        <v>1.02084716562344</v>
       </c>
       <c r="K19">
-        <v>1.034579551188262</v>
+        <v>1.026123717783994</v>
       </c>
       <c r="L19">
-        <v>1.050432182424718</v>
+        <v>1.006744660855287</v>
       </c>
       <c r="M19">
-        <v>1.05520060624705</v>
+        <v>1.010159916278585</v>
       </c>
       <c r="N19">
-        <v>1.035017457107824</v>
+        <v>1.022296885691432</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02713640438994</v>
+        <v>0.9922111111312817</v>
       </c>
       <c r="D20">
-        <v>1.031052917986302</v>
+        <v>1.011572704148693</v>
       </c>
       <c r="E20">
-        <v>1.046740783537927</v>
+        <v>0.990853039518651</v>
       </c>
       <c r="F20">
-        <v>1.051505651342371</v>
+        <v>0.9942337680379509</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033651253563658</v>
+        <v>1.03937089152873</v>
       </c>
       <c r="J20">
-        <v>1.033392790459287</v>
+        <v>1.020045618703047</v>
       </c>
       <c r="K20">
-        <v>1.034443832462968</v>
+        <v>1.025415068708232</v>
       </c>
       <c r="L20">
-        <v>1.050077224734076</v>
+        <v>1.005058656928833</v>
       </c>
       <c r="M20">
-        <v>1.054825901166784</v>
+        <v>1.0083787731765</v>
       </c>
       <c r="N20">
-        <v>1.034860326753549</v>
+        <v>1.021494200482473</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026225165204154</v>
+        <v>0.987349994807988</v>
       </c>
       <c r="D21">
-        <v>1.030400827492092</v>
+        <v>1.008236327196028</v>
       </c>
       <c r="E21">
-        <v>1.045378154674415</v>
+        <v>0.9841785122352157</v>
       </c>
       <c r="F21">
-        <v>1.050079760340388</v>
+        <v>0.9872438693010306</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033471069185433</v>
+        <v>1.038083969201904</v>
       </c>
       <c r="J21">
-        <v>1.032882128247721</v>
+        <v>1.01738629675532</v>
       </c>
       <c r="K21">
-        <v>1.034001928909694</v>
+        <v>1.0230633220566</v>
       </c>
       <c r="L21">
-        <v>1.048923737137479</v>
+        <v>0.9994659576753859</v>
       </c>
       <c r="M21">
-        <v>1.053608275382568</v>
+        <v>1.002471008630272</v>
       </c>
       <c r="N21">
-        <v>1.034348939343068</v>
+        <v>1.018831101992552</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025652541410212</v>
+        <v>0.9842229697919992</v>
       </c>
       <c r="D22">
-        <v>1.029991085985247</v>
+        <v>1.006094864589995</v>
       </c>
       <c r="E22">
-        <v>1.044522404105975</v>
+        <v>0.9798784282104512</v>
       </c>
       <c r="F22">
-        <v>1.049184269921994</v>
+        <v>0.9827403396031834</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033356658392681</v>
+        <v>1.037247111281799</v>
       </c>
       <c r="J22">
-        <v>1.032560644406314</v>
+        <v>1.01567159792116</v>
       </c>
       <c r="K22">
-        <v>1.033723578429391</v>
+        <v>1.021546540294467</v>
       </c>
       <c r="L22">
-        <v>1.048198883739997</v>
+        <v>0.9958593210970514</v>
       </c>
       <c r="M22">
-        <v>1.052843144041215</v>
+        <v>0.9986616469885508</v>
       </c>
       <c r="N22">
-        <v>1.034026998957732</v>
+        <v>1.017113968089369</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025956070486864</v>
+        <v>0.9858875746908089</v>
       </c>
       <c r="D23">
-        <v>1.03020827319312</v>
+        <v>1.007234359746903</v>
       </c>
       <c r="E23">
-        <v>1.044975960313371</v>
+        <v>0.9821681967729741</v>
       </c>
       <c r="F23">
-        <v>1.049658889599028</v>
+        <v>0.9851384657548702</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033417415886045</v>
+        <v>1.037693432089147</v>
       </c>
       <c r="J23">
-        <v>1.032731107688504</v>
+        <v>1.016584753916535</v>
       </c>
       <c r="K23">
-        <v>1.03387118516341</v>
+        <v>1.022354328678239</v>
       </c>
       <c r="L23">
-        <v>1.048583105532901</v>
+        <v>0.9977801585317075</v>
       </c>
       <c r="M23">
-        <v>1.053248713332906</v>
+        <v>1.000690406359011</v>
       </c>
       <c r="N23">
-        <v>1.034197704317335</v>
+        <v>1.018028420870998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027151686577954</v>
+        <v>0.9922914568883902</v>
       </c>
       <c r="D24">
-        <v>1.031063854565462</v>
+        <v>1.011627922920727</v>
       </c>
       <c r="E24">
-        <v>1.046763645016974</v>
+        <v>0.9909632692663743</v>
       </c>
       <c r="F24">
-        <v>1.051529574021377</v>
+        <v>0.9943492014854878</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033654255328052</v>
+        <v>1.039392009857917</v>
       </c>
       <c r="J24">
-        <v>1.033401344764795</v>
+        <v>1.020089504277684</v>
       </c>
       <c r="K24">
-        <v>1.034451232355566</v>
+        <v>1.025453870597164</v>
       </c>
       <c r="L24">
-        <v>1.050096569778342</v>
+        <v>1.005150960541507</v>
       </c>
       <c r="M24">
-        <v>1.05484632230924</v>
+        <v>1.008476283544159</v>
       </c>
       <c r="N24">
-        <v>1.034868893207152</v>
+        <v>1.02153814837966</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028540435975814</v>
+        <v>0.9994353476007324</v>
       </c>
       <c r="D25">
-        <v>1.032057765981371</v>
+        <v>1.016547113511655</v>
       </c>
       <c r="E25">
-        <v>1.048842488889939</v>
+        <v>1.000755874287979</v>
       </c>
       <c r="F25">
-        <v>1.053704888786202</v>
+        <v>1.00460339902274</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033924193980773</v>
+        <v>1.041248006111489</v>
       </c>
       <c r="J25">
-        <v>1.034177303954264</v>
+        <v>1.023981729505277</v>
       </c>
       <c r="K25">
-        <v>1.035122102673543</v>
+        <v>1.028893874829646</v>
       </c>
       <c r="L25">
-        <v>1.051854585677245</v>
+        <v>1.013342467603233</v>
       </c>
       <c r="M25">
-        <v>1.056702191205472</v>
+        <v>1.017130671007154</v>
       </c>
       <c r="N25">
-        <v>1.035645954347674</v>
+        <v>1.025435901013521</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004921588717532</v>
+        <v>1.015603004903735</v>
       </c>
       <c r="D2">
-        <v>1.020337246821745</v>
+        <v>1.030942121064774</v>
       </c>
       <c r="E2">
-        <v>1.008269561663007</v>
+        <v>1.027062374621232</v>
       </c>
       <c r="F2">
-        <v>1.012470185255864</v>
+        <v>1.036393829435788</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042641067956292</v>
+        <v>1.049177081404562</v>
       </c>
       <c r="J2">
-        <v>1.026956085810206</v>
+        <v>1.037326841707271</v>
       </c>
       <c r="K2">
-        <v>1.031520339783266</v>
+        <v>1.041986578160367</v>
       </c>
       <c r="L2">
-        <v>1.019614878136444</v>
+        <v>1.038157135123874</v>
       </c>
       <c r="M2">
-        <v>1.023758481866942</v>
+        <v>1.047368396716791</v>
       </c>
       <c r="N2">
-        <v>1.028414481245567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01614324654727</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046061278054768</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040758429979005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008791358952844</v>
+        <v>1.019302810592697</v>
       </c>
       <c r="D3">
-        <v>1.023016899644307</v>
+        <v>1.033371054495308</v>
       </c>
       <c r="E3">
-        <v>1.013569249502173</v>
+        <v>1.030350701954573</v>
       </c>
       <c r="F3">
-        <v>1.018018260746652</v>
+        <v>1.039414284336028</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043604424640892</v>
+        <v>1.050093418674958</v>
       </c>
       <c r="J3">
-        <v>1.029045198335778</v>
+        <v>1.039280744159801</v>
       </c>
       <c r="K3">
-        <v>1.033363507492834</v>
+        <v>1.043594034846049</v>
       </c>
       <c r="L3">
-        <v>1.024031404006073</v>
+        <v>1.040609426871793</v>
       </c>
       <c r="M3">
-        <v>1.028425670735081</v>
+        <v>1.049566516793822</v>
       </c>
       <c r="N3">
-        <v>1.030506560550548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016811795066271</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047800927375629</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041892377876961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01124548765645</v>
+        <v>1.021654085406517</v>
       </c>
       <c r="D4">
-        <v>1.02471888629903</v>
+        <v>1.034918720322236</v>
       </c>
       <c r="E4">
-        <v>1.016931240931963</v>
+        <v>1.032449699558969</v>
       </c>
       <c r="F4">
-        <v>1.021537500698313</v>
+        <v>1.041342030027076</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044206262572748</v>
+        <v>1.050668113932907</v>
       </c>
       <c r="J4">
-        <v>1.030365842412457</v>
+        <v>1.040519641275466</v>
       </c>
       <c r="K4">
-        <v>1.034527856189698</v>
+        <v>1.044613210260359</v>
       </c>
       <c r="L4">
-        <v>1.026829526813451</v>
+        <v>1.042171645710885</v>
       </c>
       <c r="M4">
-        <v>1.031382754638337</v>
+        <v>1.05096583989804</v>
       </c>
       <c r="N4">
-        <v>1.031829080093297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017235691582815</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048908385893395</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042613910292072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012265648805217</v>
+        <v>1.022636474867341</v>
       </c>
       <c r="D5">
-        <v>1.025426972545129</v>
+        <v>1.035568541325669</v>
       </c>
       <c r="E5">
-        <v>1.018329198171237</v>
+        <v>1.03332712729471</v>
       </c>
       <c r="F5">
-        <v>1.023000764418491</v>
+        <v>1.042147852314377</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044454228410769</v>
+        <v>1.050907982549922</v>
       </c>
       <c r="J5">
-        <v>1.030913790695416</v>
+        <v>1.041038294462201</v>
       </c>
       <c r="K5">
-        <v>1.035010747178142</v>
+        <v>1.045041504203075</v>
       </c>
       <c r="L5">
-        <v>1.027992143126712</v>
+        <v>1.042824351238615</v>
       </c>
       <c r="M5">
-        <v>1.032611449543035</v>
+        <v>1.051550338638906</v>
       </c>
       <c r="N5">
-        <v>1.032377806525668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017413625133231</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049370971998707</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042923890400368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012436271627709</v>
+        <v>1.022805536461786</v>
       </c>
       <c r="D6">
-        <v>1.025545433756245</v>
+        <v>1.035683153810565</v>
       </c>
       <c r="E6">
-        <v>1.018563035911761</v>
+        <v>1.033476140474488</v>
       </c>
       <c r="F6">
-        <v>1.023245521318278</v>
+        <v>1.042284757771814</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044495569960861</v>
+        <v>1.050951125003445</v>
       </c>
       <c r="J6">
-        <v>1.03100537428317</v>
+        <v>1.04112961402264</v>
       </c>
       <c r="K6">
-        <v>1.035091444523473</v>
+        <v>1.045118899243288</v>
       </c>
       <c r="L6">
-        <v>1.028186563272729</v>
+        <v>1.042935665126228</v>
       </c>
       <c r="M6">
-        <v>1.032816921397674</v>
+        <v>1.051650110495236</v>
       </c>
       <c r="N6">
-        <v>1.032469520172622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017445532896861</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049449933772987</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042987324671225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011259164004606</v>
+        <v>1.021679864149772</v>
       </c>
       <c r="D7">
-        <v>1.02472837669522</v>
+        <v>1.03494307637361</v>
       </c>
       <c r="E7">
-        <v>1.016949980239726</v>
+        <v>1.032467071804243</v>
       </c>
       <c r="F7">
-        <v>1.021557115741105</v>
+        <v>1.041358111683762</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044209595599802</v>
+        <v>1.050679717583365</v>
       </c>
       <c r="J7">
-        <v>1.030373192346315</v>
+        <v>1.04053890358881</v>
       </c>
       <c r="K7">
-        <v>1.03453433431519</v>
+        <v>1.044634430048117</v>
       </c>
       <c r="L7">
-        <v>1.026845114907159</v>
+        <v>1.042185948816384</v>
       </c>
       <c r="M7">
-        <v>1.031399228585965</v>
+        <v>1.050978903205563</v>
       </c>
       <c r="N7">
-        <v>1.031836440464904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017243877616943</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048918724506577</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042648948657629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006239959578751</v>
+        <v>1.016878184333331</v>
       </c>
       <c r="D8">
-        <v>1.02124959148751</v>
+        <v>1.031787493919871</v>
       </c>
       <c r="E8">
-        <v>1.010074963358574</v>
+        <v>1.028186946032412</v>
       </c>
       <c r="F8">
-        <v>1.014360269494571</v>
+        <v>1.037426886005729</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042971159142469</v>
+        <v>1.049501045824662</v>
       </c>
       <c r="J8">
-        <v>1.027668689420177</v>
+        <v>1.038007863330539</v>
       </c>
       <c r="K8">
-        <v>1.032149215591961</v>
+        <v>1.042553433294337</v>
       </c>
       <c r="L8">
-        <v>1.021120170599763</v>
+        <v>1.038998177642616</v>
       </c>
       <c r="M8">
-        <v>1.025349172724462</v>
+        <v>1.048122672629368</v>
       </c>
       <c r="N8">
-        <v>1.0291280968344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016378338400103</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046658232065223</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041182073921221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9969952470768993</v>
+        <v>1.008055422259686</v>
       </c>
       <c r="D9">
-        <v>1.014864809157413</v>
+        <v>1.026011366621849</v>
       </c>
       <c r="E9">
-        <v>0.9974126547137279</v>
+        <v>1.020406176349685</v>
       </c>
       <c r="F9">
-        <v>1.001102753452835</v>
+        <v>1.030278441566044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04061907751629</v>
+        <v>1.047267570730616</v>
       </c>
       <c r="J9">
-        <v>1.022654558933205</v>
+        <v>1.033326894826311</v>
       </c>
       <c r="K9">
-        <v>1.027721232537477</v>
+        <v>1.038696067450647</v>
       </c>
       <c r="L9">
-        <v>1.010547849735695</v>
+        <v>1.033176631428397</v>
       </c>
       <c r="M9">
-        <v>1.014177964552681</v>
+        <v>1.042898656463459</v>
       </c>
       <c r="N9">
-        <v>1.024106845707008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014774969081504</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04252379680734</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03845150841909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9905358391361521</v>
+        <v>1.001986573490995</v>
       </c>
       <c r="D10">
-        <v>1.010421896782869</v>
+        <v>1.022073935184527</v>
       </c>
       <c r="E10">
-        <v>0.9885540528102166</v>
+        <v>1.01522409433668</v>
       </c>
       <c r="F10">
-        <v>0.9918262155243349</v>
+        <v>1.025540747206265</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038929402670548</v>
+        <v>1.0457178033668</v>
       </c>
       <c r="J10">
-        <v>1.019130050338469</v>
+        <v>1.030121594159437</v>
       </c>
       <c r="K10">
-        <v>1.02460549616121</v>
+        <v>1.036055756397868</v>
       </c>
       <c r="L10">
-        <v>1.003133089010914</v>
+        <v>1.029323807955443</v>
       </c>
       <c r="M10">
-        <v>1.006344635273187</v>
+        <v>1.039463675760705</v>
       </c>
       <c r="N10">
-        <v>1.0205773319058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013682913180387</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039856594889067</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036601428857864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9876620014905609</v>
+        <v>0.999792679560434</v>
       </c>
       <c r="D11">
-        <v>1.008450202044331</v>
+        <v>1.020733156738836</v>
       </c>
       <c r="E11">
-        <v>0.9846072595048018</v>
+        <v>1.014324783380512</v>
       </c>
       <c r="F11">
-        <v>0.9876928906551169</v>
+        <v>1.02491268133359</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038167094732592</v>
+        <v>1.045340451118519</v>
       </c>
       <c r="J11">
-        <v>1.017557218414945</v>
+        <v>1.029174085849522</v>
       </c>
       <c r="K11">
-        <v>1.023214500199932</v>
+        <v>1.035274389009022</v>
       </c>
       <c r="L11">
-        <v>0.9998254180380176</v>
+        <v>1.028981518652546</v>
       </c>
       <c r="M11">
-        <v>1.002850693992388</v>
+        <v>1.039379592188912</v>
       </c>
       <c r="N11">
-        <v>1.019002266380538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013405159152339</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040225382249341</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036081762949758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9865823765708558</v>
+        <v>0.9991501414661483</v>
       </c>
       <c r="D12">
-        <v>1.007710296798548</v>
+        <v>1.020370133327303</v>
       </c>
       <c r="E12">
-        <v>0.9831234557910556</v>
+        <v>1.01450959871858</v>
       </c>
       <c r="F12">
-        <v>0.9861389140172718</v>
+        <v>1.025220842629649</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037879164605026</v>
+        <v>1.045312986210237</v>
       </c>
       <c r="J12">
-        <v>1.01696565347643</v>
+        <v>1.028990512432527</v>
       </c>
       <c r="K12">
-        <v>1.022691255631643</v>
+        <v>1.035117209574439</v>
       </c>
       <c r="L12">
-        <v>0.9985812870194893</v>
+        <v>1.029363998970919</v>
       </c>
       <c r="M12">
-        <v>1.001536577387724</v>
+        <v>1.039880293591351</v>
       </c>
       <c r="N12">
-        <v>1.018409861351957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013377832380665</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040947087690189</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035970632314675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9868145199332443</v>
+        <v>0.999673469658877</v>
       </c>
       <c r="D13">
-        <v>1.00786935538375</v>
+        <v>1.020752338467017</v>
       </c>
       <c r="E13">
-        <v>0.9834425606749203</v>
+        <v>1.015551053880923</v>
       </c>
       <c r="F13">
-        <v>0.9864731122266779</v>
+        <v>1.026287523941333</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037941145498109</v>
+        <v>1.045566445939806</v>
       </c>
       <c r="J13">
-        <v>1.017092884099168</v>
+        <v>1.029398983651194</v>
       </c>
       <c r="K13">
-        <v>1.022803795200423</v>
+        <v>1.035449734223913</v>
       </c>
       <c r="L13">
-        <v>0.9988488753021872</v>
+        <v>1.030343209321787</v>
       </c>
       <c r="M13">
-        <v>1.001819214554909</v>
+        <v>1.040885446518014</v>
       </c>
       <c r="N13">
-        <v>1.018537272656773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013549172444235</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042017865985103</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.036203248599462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.987573010934191</v>
+        <v>1.000568059575276</v>
       </c>
       <c r="D14">
-        <v>1.008389196880245</v>
+        <v>1.021358860415549</v>
       </c>
       <c r="E14">
-        <v>0.9844849775071021</v>
+        <v>1.016660379210421</v>
       </c>
       <c r="F14">
-        <v>0.9875648265420341</v>
+        <v>1.027371612969572</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038143392758955</v>
+        <v>1.045870835987575</v>
       </c>
       <c r="J14">
-        <v>1.017508471300384</v>
+        <v>1.02995284599598</v>
       </c>
       <c r="K14">
-        <v>1.023171384274713</v>
+        <v>1.035905372027669</v>
       </c>
       <c r="L14">
-        <v>0.9997228999634362</v>
+        <v>1.03129136517064</v>
       </c>
       <c r="M14">
-        <v>1.00274240738489</v>
+        <v>1.041811481860941</v>
       </c>
       <c r="N14">
-        <v>1.018953450039484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013759289030381</v>
+      </c>
+      <c r="O14">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P14">
+        <v>1.04292279869936</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03652682082906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9880387129983597</v>
+        <v>1.001044890316408</v>
       </c>
       <c r="D15">
-        <v>1.008708480143645</v>
+        <v>1.021675309172712</v>
       </c>
       <c r="E15">
-        <v>0.985124852715878</v>
+        <v>1.017133949279932</v>
       </c>
       <c r="F15">
-        <v>0.9882349564502667</v>
+        <v>1.027820904553718</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038267366019306</v>
+        <v>1.046010876362621</v>
       </c>
       <c r="J15">
-        <v>1.017763544732995</v>
+        <v>1.030223438944768</v>
       </c>
       <c r="K15">
-        <v>1.023396989244675</v>
+        <v>1.03612999500419</v>
       </c>
       <c r="L15">
-        <v>1.000259330238549</v>
+        <v>1.03166964553658</v>
       </c>
       <c r="M15">
-        <v>1.003309024963332</v>
+        <v>1.042167439280085</v>
       </c>
       <c r="N15">
-        <v>1.019208885705625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013856579037114</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043241599258574</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036691496781748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9907248960264442</v>
+        <v>1.003508604764814</v>
       </c>
       <c r="D16">
-        <v>1.010551714643714</v>
+        <v>1.023265069909346</v>
       </c>
       <c r="E16">
-        <v>0.988813557262078</v>
+        <v>1.019131591807258</v>
       </c>
       <c r="F16">
-        <v>0.9920979779975437</v>
+        <v>1.029648228892863</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038979334376468</v>
+        <v>1.046629589309535</v>
       </c>
       <c r="J16">
-        <v>1.019233422579654</v>
+        <v>1.031507363217974</v>
       </c>
       <c r="K16">
-        <v>1.024696906764947</v>
+        <v>1.037191115647318</v>
       </c>
       <c r="L16">
-        <v>1.003350485642338</v>
+        <v>1.033128113144511</v>
       </c>
       <c r="M16">
-        <v>1.006574284683532</v>
+        <v>1.043466874316883</v>
       </c>
       <c r="N16">
-        <v>1.020680850947425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014288360415927</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044230051938944</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037444904623919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9923888731690618</v>
+        <v>1.004933213933743</v>
       </c>
       <c r="D17">
-        <v>1.011694876866352</v>
+        <v>1.024170297960223</v>
       </c>
       <c r="E17">
-        <v>0.9910969153544719</v>
+        <v>1.020084694491752</v>
       </c>
       <c r="F17">
-        <v>0.9944891564912957</v>
+        <v>1.030479159419661</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03941760815865</v>
+        <v>1.046943701558994</v>
       </c>
       <c r="J17">
-        <v>1.020142710818406</v>
+        <v>1.032203127155048</v>
       </c>
       <c r="K17">
-        <v>1.025500913327397</v>
+        <v>1.037767403117601</v>
       </c>
       <c r="L17">
-        <v>1.005262869692002</v>
+        <v>1.033749498141912</v>
       </c>
       <c r="M17">
-        <v>1.008594505665094</v>
+        <v>1.043973080938791</v>
       </c>
       <c r="N17">
-        <v>1.021591430479772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014509763366011</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04450148395144</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037854942246481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9933520689015993</v>
+        <v>1.005585073311111</v>
       </c>
       <c r="D18">
-        <v>1.012357067771362</v>
+        <v>1.024553748512278</v>
       </c>
       <c r="E18">
-        <v>0.9924181336282422</v>
+        <v>1.02016617516306</v>
       </c>
       <c r="F18">
-        <v>0.9958727315402192</v>
+        <v>1.030460472280203</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039670298801185</v>
+        <v>1.047012454844</v>
       </c>
       <c r="J18">
-        <v>1.020668601203448</v>
+        <v>1.032438731188722</v>
       </c>
       <c r="K18">
-        <v>1.02596585747569</v>
+        <v>1.037961697142707</v>
       </c>
       <c r="L18">
-        <v>1.006369036052751</v>
+        <v>1.033645662269035</v>
       </c>
       <c r="M18">
-        <v>1.00976308935546</v>
+        <v>1.043773346461368</v>
       </c>
       <c r="N18">
-        <v>1.022118067689481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014562501329185</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044106597061447</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037980702765526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9936792606795554</v>
+        <v>1.005556477749996</v>
       </c>
       <c r="D19">
-        <v>1.012582087978509</v>
+        <v>1.02448900947923</v>
       </c>
       <c r="E19">
-        <v>0.9928668650848906</v>
+        <v>1.01945753416226</v>
       </c>
       <c r="F19">
-        <v>0.996342636118241</v>
+        <v>1.029669829723594</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039755964804447</v>
+        <v>1.046874288222148</v>
       </c>
       <c r="J19">
-        <v>1.02084716562344</v>
+        <v>1.032277789090638</v>
       </c>
       <c r="K19">
-        <v>1.026123717783994</v>
+        <v>1.037835656748216</v>
       </c>
       <c r="L19">
-        <v>1.006744660855287</v>
+        <v>1.032885860493758</v>
       </c>
       <c r="M19">
-        <v>1.010159916278585</v>
+        <v>1.042933442497964</v>
       </c>
       <c r="N19">
-        <v>1.022296885691432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014474504789889</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04311795173049</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037897969662875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9922111111312817</v>
+        <v>1.003593225853784</v>
       </c>
       <c r="D20">
-        <v>1.011572704148693</v>
+        <v>1.023133115570523</v>
       </c>
       <c r="E20">
-        <v>0.990853039518651</v>
+        <v>1.016584949210258</v>
       </c>
       <c r="F20">
-        <v>0.9942337680379509</v>
+        <v>1.026785967052837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03937089152873</v>
+        <v>1.04614495117549</v>
       </c>
       <c r="J20">
-        <v>1.020045618703047</v>
+        <v>1.03098633393016</v>
       </c>
       <c r="K20">
-        <v>1.025415068708232</v>
+        <v>1.036781038079386</v>
       </c>
       <c r="L20">
-        <v>1.005058656928833</v>
+        <v>1.030342309163164</v>
       </c>
       <c r="M20">
-        <v>1.0083787731765</v>
+        <v>1.040373620620654</v>
       </c>
       <c r="N20">
-        <v>1.021494200482473</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013982470150645</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04056618764478</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037156229853475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.987349994807988</v>
+        <v>0.9989400778569807</v>
       </c>
       <c r="D21">
-        <v>1.008236327196028</v>
+        <v>1.020106147795945</v>
       </c>
       <c r="E21">
-        <v>0.9841785122352157</v>
+        <v>1.012449809587346</v>
       </c>
       <c r="F21">
-        <v>0.9872438693010306</v>
+        <v>1.022966073521773</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038083969201904</v>
+        <v>1.044905998878758</v>
       </c>
       <c r="J21">
-        <v>1.01738629675532</v>
+        <v>1.028482180919215</v>
       </c>
       <c r="K21">
-        <v>1.0230633220566</v>
+        <v>1.034716359054891</v>
       </c>
       <c r="L21">
-        <v>0.9994659576753859</v>
+        <v>1.027199093890295</v>
       </c>
       <c r="M21">
-        <v>1.002471008630272</v>
+        <v>1.037525029264453</v>
       </c>
       <c r="N21">
-        <v>1.018831101992552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013120774173974</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038270930548687</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.0356996531312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9842229697919992</v>
+        <v>0.9959715815301757</v>
       </c>
       <c r="D22">
-        <v>1.006094864589995</v>
+        <v>1.018178168033724</v>
       </c>
       <c r="E22">
-        <v>0.9798784282104512</v>
+        <v>1.009888409807736</v>
       </c>
       <c r="F22">
-        <v>0.9827403396031834</v>
+        <v>1.02061219700536</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037247111281799</v>
+        <v>1.04411432998164</v>
       </c>
       <c r="J22">
-        <v>1.01567159792116</v>
+        <v>1.026889609797908</v>
       </c>
       <c r="K22">
-        <v>1.021546540294467</v>
+        <v>1.033397913168102</v>
       </c>
       <c r="L22">
-        <v>0.9958593210970514</v>
+        <v>1.025266488012581</v>
       </c>
       <c r="M22">
-        <v>0.9986616469885508</v>
+        <v>1.035786090471002</v>
       </c>
       <c r="N22">
-        <v>1.017113968089369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012573348158877</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036894671485887</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034753966994483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9858875746908089</v>
+        <v>0.9975390771788548</v>
       </c>
       <c r="D23">
-        <v>1.007234359746903</v>
+        <v>1.019189083679116</v>
       </c>
       <c r="E23">
-        <v>0.9821681967729741</v>
+        <v>1.011244232278625</v>
       </c>
       <c r="F23">
-        <v>0.9851384657548702</v>
+        <v>1.021858457006643</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037693432089147</v>
+        <v>1.044528406175063</v>
       </c>
       <c r="J23">
-        <v>1.016584753916535</v>
+        <v>1.027725728015858</v>
       </c>
       <c r="K23">
-        <v>1.022354328678239</v>
+        <v>1.034085512400958</v>
       </c>
       <c r="L23">
-        <v>0.9977801585317075</v>
+        <v>1.026288451617558</v>
       </c>
       <c r="M23">
-        <v>1.000690406359011</v>
+        <v>1.036705901411373</v>
       </c>
       <c r="N23">
-        <v>1.018028420870998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01285898834112</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037622643466763</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035230502275442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9922914568883902</v>
+        <v>1.003604577926998</v>
       </c>
       <c r="D24">
-        <v>1.011627922920727</v>
+        <v>1.023123510810934</v>
       </c>
       <c r="E24">
-        <v>0.9909632692663743</v>
+        <v>1.016508710356172</v>
       </c>
       <c r="F24">
-        <v>0.9943492014854878</v>
+        <v>1.026696712202293</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039392009857917</v>
+        <v>1.046122859828225</v>
       </c>
       <c r="J24">
-        <v>1.020089504277684</v>
+        <v>1.030964575164618</v>
       </c>
       <c r="K24">
-        <v>1.025453870597164</v>
+        <v>1.036756366079157</v>
       </c>
       <c r="L24">
-        <v>1.005150960541507</v>
+        <v>1.030251986993037</v>
       </c>
       <c r="M24">
-        <v>1.008476283544159</v>
+        <v>1.040270680861637</v>
       </c>
       <c r="N24">
-        <v>1.02153814837966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013968489379542</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040443933151122</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037111427663098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9994353476007324</v>
+        <v>1.010399051409699</v>
       </c>
       <c r="D25">
-        <v>1.016547113511655</v>
+        <v>1.027552911962993</v>
       </c>
       <c r="E25">
-        <v>1.000755874287979</v>
+        <v>1.022455683049061</v>
       </c>
       <c r="F25">
-        <v>1.00460339902274</v>
+        <v>1.03216144124427</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041248006111489</v>
+        <v>1.047875809347037</v>
       </c>
       <c r="J25">
-        <v>1.023981729505277</v>
+        <v>1.034581443530582</v>
       </c>
       <c r="K25">
-        <v>1.028893874829646</v>
+        <v>1.039738047965944</v>
       </c>
       <c r="L25">
-        <v>1.013342467603233</v>
+        <v>1.034715125122689</v>
       </c>
       <c r="M25">
-        <v>1.017130671007154</v>
+        <v>1.044280195146578</v>
       </c>
       <c r="N25">
-        <v>1.025435901013521</v>
+        <v>1.015207441506151</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043617188164787</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039216764514025</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015603004903735</v>
+        <v>1.014717728463659</v>
       </c>
       <c r="D2">
-        <v>1.030942121064774</v>
+        <v>1.029587685605128</v>
       </c>
       <c r="E2">
-        <v>1.027062374621232</v>
+        <v>1.02683611643588</v>
       </c>
       <c r="F2">
-        <v>1.036393829435788</v>
+        <v>1.036059945384574</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049177081404562</v>
+        <v>1.048576999828189</v>
       </c>
       <c r="J2">
-        <v>1.037326841707271</v>
+        <v>1.036466972467209</v>
       </c>
       <c r="K2">
-        <v>1.041986578160367</v>
+        <v>1.040649649923739</v>
       </c>
       <c r="L2">
-        <v>1.038157135123874</v>
+        <v>1.037933825211833</v>
       </c>
       <c r="M2">
-        <v>1.047368396716791</v>
+        <v>1.047038766578557</v>
       </c>
       <c r="N2">
-        <v>1.01614324654727</v>
+        <v>1.016734791525726</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046061278054768</v>
+        <v>1.045800399847721</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040758429979005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039821861298835</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022823896384548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019302810592697</v>
+        <v>1.018236416652387</v>
       </c>
       <c r="D3">
-        <v>1.033371054495308</v>
+        <v>1.031806819882757</v>
       </c>
       <c r="E3">
-        <v>1.030350701954573</v>
+        <v>1.030065207702348</v>
       </c>
       <c r="F3">
-        <v>1.039414284336028</v>
+        <v>1.039011578226495</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050093418674958</v>
+        <v>1.049384787259809</v>
       </c>
       <c r="J3">
-        <v>1.039280744159801</v>
+        <v>1.038241989444629</v>
       </c>
       <c r="K3">
-        <v>1.043594034846049</v>
+        <v>1.042048279911284</v>
       </c>
       <c r="L3">
-        <v>1.040609426871793</v>
+        <v>1.040327324758886</v>
       </c>
       <c r="M3">
-        <v>1.049566516793822</v>
+        <v>1.049168493506077</v>
       </c>
       <c r="N3">
-        <v>1.016811795066271</v>
+        <v>1.017215783065202</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047800927375629</v>
+        <v>1.047485921711732</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041892377876961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040807875210749</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023101544109655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021654085406517</v>
+        <v>1.020473767892515</v>
       </c>
       <c r="D4">
-        <v>1.034918720322236</v>
+        <v>1.033221924262632</v>
       </c>
       <c r="E4">
-        <v>1.032449699558969</v>
+        <v>1.032127237410696</v>
       </c>
       <c r="F4">
-        <v>1.041342030027076</v>
+        <v>1.04089609908496</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050668113932907</v>
+        <v>1.049890857793243</v>
       </c>
       <c r="J4">
-        <v>1.040519641275466</v>
+        <v>1.039367866373382</v>
       </c>
       <c r="K4">
-        <v>1.044613210260359</v>
+        <v>1.042935265706358</v>
       </c>
       <c r="L4">
-        <v>1.042171645710885</v>
+        <v>1.041852781368002</v>
       </c>
       <c r="M4">
-        <v>1.05096583989804</v>
+        <v>1.050524781239963</v>
       </c>
       <c r="N4">
-        <v>1.017235691582815</v>
+        <v>1.017520946516798</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048908385893395</v>
+        <v>1.048559321466056</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042613910292072</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041436021792279</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023275248371225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022636474867341</v>
+        <v>1.021408739041106</v>
       </c>
       <c r="D5">
-        <v>1.035568541325669</v>
+        <v>1.033816506974061</v>
       </c>
       <c r="E5">
-        <v>1.03332712729471</v>
+        <v>1.032989321012852</v>
       </c>
       <c r="F5">
-        <v>1.042147852314377</v>
+        <v>1.041683928035021</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050907982549922</v>
+        <v>1.050102088963561</v>
       </c>
       <c r="J5">
-        <v>1.041038294462201</v>
+        <v>1.039839369522259</v>
       </c>
       <c r="K5">
-        <v>1.045041504203075</v>
+        <v>1.04330842286089</v>
       </c>
       <c r="L5">
-        <v>1.042824351238615</v>
+        <v>1.042490212572525</v>
       </c>
       <c r="M5">
-        <v>1.051550338638906</v>
+        <v>1.051091348129183</v>
       </c>
       <c r="N5">
-        <v>1.017413625133231</v>
+        <v>1.017649118409978</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049370971998707</v>
+        <v>1.049007716095413</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042923890400368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041707729158028</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023348303957462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022805536461786</v>
+        <v>1.021569547658236</v>
       </c>
       <c r="D6">
-        <v>1.035683153810565</v>
+        <v>1.033921585011412</v>
       </c>
       <c r="E6">
-        <v>1.033476140474488</v>
+        <v>1.033135634575174</v>
       </c>
       <c r="F6">
-        <v>1.042284757771814</v>
+        <v>1.041817681784265</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050951125003445</v>
+        <v>1.050140247317647</v>
       </c>
       <c r="J6">
-        <v>1.04112961402264</v>
+        <v>1.039922482003113</v>
       </c>
       <c r="K6">
-        <v>1.045118899243288</v>
+        <v>1.043376300245765</v>
       </c>
       <c r="L6">
-        <v>1.042935665126228</v>
+        <v>1.042598839062503</v>
       </c>
       <c r="M6">
-        <v>1.051650110495236</v>
+        <v>1.051187979042632</v>
       </c>
       <c r="N6">
-        <v>1.017445532896861</v>
+        <v>1.017672144975124</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049449933772987</v>
+        <v>1.049084192091702</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042987324671225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041765305137501</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023362233171802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021679864149772</v>
+        <v>1.020507298528677</v>
       </c>
       <c r="D7">
-        <v>1.03494307637361</v>
+        <v>1.033251499899881</v>
       </c>
       <c r="E7">
-        <v>1.032467071804243</v>
+        <v>1.032147712531611</v>
       </c>
       <c r="F7">
-        <v>1.041358111683762</v>
+        <v>1.040915159780044</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050679717583365</v>
+        <v>1.049906075959472</v>
       </c>
       <c r="J7">
-        <v>1.04053890358881</v>
+        <v>1.039394680591271</v>
       </c>
       <c r="K7">
-        <v>1.044634430048117</v>
+        <v>1.042961639625282</v>
       </c>
       <c r="L7">
-        <v>1.042185948816384</v>
+        <v>1.041870151381385</v>
       </c>
       <c r="M7">
-        <v>1.050978903205563</v>
+        <v>1.050540789227171</v>
       </c>
       <c r="N7">
-        <v>1.017243877616943</v>
+        <v>1.017555509396688</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048918724506577</v>
+        <v>1.048571990574916</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042648948657629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041476709026136</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023283050215554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016878184333331</v>
+        <v>1.015958393227265</v>
       </c>
       <c r="D8">
-        <v>1.031787493919871</v>
+        <v>1.030381344748774</v>
       </c>
       <c r="E8">
-        <v>1.028186946032412</v>
+        <v>1.027951525217747</v>
       </c>
       <c r="F8">
-        <v>1.037426886005729</v>
+        <v>1.037080136177909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049501045824662</v>
+        <v>1.048877239857595</v>
       </c>
       <c r="J8">
-        <v>1.038007863330539</v>
+        <v>1.037113591021489</v>
       </c>
       <c r="K8">
-        <v>1.042553433294337</v>
+        <v>1.041164925458779</v>
       </c>
       <c r="L8">
-        <v>1.038998177642616</v>
+        <v>1.038765732039538</v>
       </c>
       <c r="M8">
-        <v>1.048122672629368</v>
+        <v>1.047780208883627</v>
       </c>
       <c r="N8">
-        <v>1.016378338400103</v>
+        <v>1.016990971208946</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046658232065223</v>
+        <v>1.046387197212043</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041182073921221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040211306524443</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022931447783166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008055422259686</v>
+        <v>1.007579536230915</v>
       </c>
       <c r="D9">
-        <v>1.026011366621849</v>
+        <v>1.025113580240447</v>
       </c>
       <c r="E9">
-        <v>1.020406176349685</v>
+        <v>1.020318651510139</v>
       </c>
       <c r="F9">
-        <v>1.030278441566044</v>
+        <v>1.030101008205301</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047267570730616</v>
+        <v>1.046907160662812</v>
       </c>
       <c r="J9">
-        <v>1.033326894826311</v>
+        <v>1.032867451648664</v>
       </c>
       <c r="K9">
-        <v>1.038696067450647</v>
+        <v>1.037811935961468</v>
       </c>
       <c r="L9">
-        <v>1.033176631428397</v>
+        <v>1.033090455175715</v>
       </c>
       <c r="M9">
-        <v>1.042898656463459</v>
+        <v>1.042723891001416</v>
       </c>
       <c r="N9">
-        <v>1.014774969081504</v>
+        <v>1.015849257174686</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04252379680734</v>
+        <v>1.042385482035562</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03845150841909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037837087610274</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02225092280673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001986573490995</v>
+        <v>1.001862715764577</v>
       </c>
       <c r="D10">
-        <v>1.022073935184527</v>
+        <v>1.021558649353736</v>
       </c>
       <c r="E10">
-        <v>1.01522409433668</v>
+        <v>1.015258393556767</v>
       </c>
       <c r="F10">
-        <v>1.025540747206265</v>
+        <v>1.025498281401897</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.0457178033668</v>
+        <v>1.045559542401268</v>
       </c>
       <c r="J10">
-        <v>1.030121594159437</v>
+        <v>1.030002623876798</v>
       </c>
       <c r="K10">
-        <v>1.036055756397868</v>
+        <v>1.035549268092846</v>
       </c>
       <c r="L10">
-        <v>1.029323807955443</v>
+        <v>1.029357511723826</v>
       </c>
       <c r="M10">
-        <v>1.039463675760705</v>
+        <v>1.039421928238143</v>
       </c>
       <c r="N10">
-        <v>1.013682913180387</v>
+        <v>1.015195548676177</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039856594889067</v>
+        <v>1.039823556546712</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036601428857864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036255706142423</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021787957911235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.999792679560434</v>
+        <v>0.9998442865288363</v>
       </c>
       <c r="D11">
-        <v>1.020733156738836</v>
+        <v>1.020385361864386</v>
       </c>
       <c r="E11">
-        <v>1.014324783380512</v>
+        <v>1.014412577106742</v>
       </c>
       <c r="F11">
-        <v>1.02491268133359</v>
+        <v>1.024934523661242</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045340451118519</v>
+        <v>1.045274619142736</v>
       </c>
       <c r="J11">
-        <v>1.029174085849522</v>
+        <v>1.029223544798656</v>
       </c>
       <c r="K11">
-        <v>1.035274389009022</v>
+        <v>1.034932814352606</v>
       </c>
       <c r="L11">
-        <v>1.028981518652546</v>
+        <v>1.029067717178296</v>
       </c>
       <c r="M11">
-        <v>1.039379592188912</v>
+        <v>1.039401048175514</v>
       </c>
       <c r="N11">
-        <v>1.013405159152339</v>
+        <v>1.015247845267411</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040225382249341</v>
+        <v>1.040242353674995</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036081762949758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035855856966477</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021700327109136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9991501414661483</v>
+        <v>0.9992555011870473</v>
       </c>
       <c r="D12">
-        <v>1.020370133327303</v>
+        <v>1.020069749647083</v>
       </c>
       <c r="E12">
-        <v>1.01450959871858</v>
+        <v>1.01460631228959</v>
       </c>
       <c r="F12">
-        <v>1.025220842629649</v>
+        <v>1.025260111768413</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045312986210237</v>
+        <v>1.045272943721412</v>
       </c>
       <c r="J12">
-        <v>1.028990512432527</v>
+        <v>1.029091402995362</v>
       </c>
       <c r="K12">
-        <v>1.035117209574439</v>
+        <v>1.034822287807573</v>
       </c>
       <c r="L12">
-        <v>1.029363998970919</v>
+        <v>1.029458928312839</v>
       </c>
       <c r="M12">
-        <v>1.039880293591351</v>
+        <v>1.039918857751323</v>
       </c>
       <c r="N12">
-        <v>1.013377832380665</v>
+        <v>1.015338733856632</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040947087690189</v>
+        <v>1.040977581194612</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035970632314675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035777712929937</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021704526499682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.999673469658877</v>
+        <v>0.9997269127794264</v>
       </c>
       <c r="D13">
-        <v>1.020752338467017</v>
+        <v>1.02039851196133</v>
       </c>
       <c r="E13">
-        <v>1.015551053880923</v>
+        <v>1.015618379207632</v>
       </c>
       <c r="F13">
-        <v>1.026287523941333</v>
+        <v>1.026303934393118</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045566445939806</v>
+        <v>1.04549518429156</v>
       </c>
       <c r="J13">
-        <v>1.029398983651194</v>
+        <v>1.029450171311135</v>
       </c>
       <c r="K13">
-        <v>1.035449734223913</v>
+        <v>1.035102314085027</v>
       </c>
       <c r="L13">
-        <v>1.030343209321787</v>
+        <v>1.030409300005759</v>
       </c>
       <c r="M13">
-        <v>1.040885446518014</v>
+        <v>1.040901564127682</v>
       </c>
       <c r="N13">
-        <v>1.013549172444235</v>
+        <v>1.015433533556033</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042017865985103</v>
+        <v>1.042030607337465</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036203248599462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03597296487332</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021783583045627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000568059575276</v>
+        <v>1.00053759644782</v>
       </c>
       <c r="D14">
-        <v>1.021358860415549</v>
+        <v>1.020922372816554</v>
       </c>
       <c r="E14">
-        <v>1.016660379210421</v>
+        <v>1.016691266602175</v>
       </c>
       <c r="F14">
-        <v>1.027371612969572</v>
+        <v>1.02735431746276</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045870835987575</v>
+        <v>1.045752275162346</v>
       </c>
       <c r="J14">
-        <v>1.02995284599598</v>
+        <v>1.029923649987636</v>
       </c>
       <c r="K14">
-        <v>1.035905372027669</v>
+        <v>1.035476689524719</v>
       </c>
       <c r="L14">
-        <v>1.03129136517064</v>
+        <v>1.031321693920475</v>
       </c>
       <c r="M14">
-        <v>1.041811481860941</v>
+        <v>1.041794490788216</v>
       </c>
       <c r="N14">
-        <v>1.013759289030381</v>
+        <v>1.015503124364609</v>
       </c>
       <c r="O14">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04292279869936</v>
+        <v>1.042909368656289</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03652682082906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036239215337424</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021873471357379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001044890316408</v>
+        <v>1.00097144282965</v>
       </c>
       <c r="D15">
-        <v>1.021675309172712</v>
+        <v>1.021197017330218</v>
       </c>
       <c r="E15">
-        <v>1.017133949279932</v>
+        <v>1.017148441758856</v>
       </c>
       <c r="F15">
-        <v>1.027820904553718</v>
+        <v>1.027786965734869</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046010876362621</v>
+        <v>1.045868663286581</v>
       </c>
       <c r="J15">
-        <v>1.030223438944768</v>
+        <v>1.030153019777255</v>
       </c>
       <c r="K15">
-        <v>1.03612999500419</v>
+        <v>1.035660191056661</v>
       </c>
       <c r="L15">
-        <v>1.03166964553658</v>
+        <v>1.031683877998715</v>
       </c>
       <c r="M15">
-        <v>1.042167439280085</v>
+        <v>1.042134093121972</v>
       </c>
       <c r="N15">
-        <v>1.013856579037114</v>
+        <v>1.015526122523609</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043241599258574</v>
+        <v>1.043215242557086</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036691496781748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036375385735285</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021914032359847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003508604764814</v>
+        <v>1.003232031543004</v>
       </c>
       <c r="D16">
-        <v>1.023265069909346</v>
+        <v>1.022588552251614</v>
       </c>
       <c r="E16">
-        <v>1.019131591807258</v>
+        <v>1.019078087685301</v>
       </c>
       <c r="F16">
-        <v>1.029648228892863</v>
+        <v>1.029538205834381</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046629589309535</v>
+        <v>1.046377444585346</v>
       </c>
       <c r="J16">
-        <v>1.031507363217974</v>
+        <v>1.031241624408576</v>
       </c>
       <c r="K16">
-        <v>1.037191115647318</v>
+        <v>1.036526082240053</v>
       </c>
       <c r="L16">
-        <v>1.033128113144511</v>
+        <v>1.033075526108957</v>
       </c>
       <c r="M16">
-        <v>1.043466874316883</v>
+        <v>1.043358687926122</v>
       </c>
       <c r="N16">
-        <v>1.014288360415927</v>
+        <v>1.015606936353368</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044230051938944</v>
+        <v>1.0441445393</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037444904623919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036991058405881</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022085885536325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004933213933743</v>
+        <v>1.004555887486882</v>
       </c>
       <c r="D17">
-        <v>1.024170297960223</v>
+        <v>1.023392924046391</v>
       </c>
       <c r="E17">
-        <v>1.020084694491752</v>
+        <v>1.020000995334068</v>
       </c>
       <c r="F17">
-        <v>1.030479159419661</v>
+        <v>1.030332155886817</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046943701558994</v>
+        <v>1.046637042447088</v>
       </c>
       <c r="J17">
-        <v>1.032203127155048</v>
+        <v>1.031840108479779</v>
       </c>
       <c r="K17">
-        <v>1.037767403117601</v>
+        <v>1.037002856713494</v>
       </c>
       <c r="L17">
-        <v>1.033749498141912</v>
+        <v>1.033667193182407</v>
       </c>
       <c r="M17">
-        <v>1.043973080938791</v>
+        <v>1.043828463233391</v>
       </c>
       <c r="N17">
-        <v>1.014509763366011</v>
+        <v>1.015662676329615</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04450148395144</v>
+        <v>1.04438716395414</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037854942246481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037330984278004</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02217248615183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005585073311111</v>
+        <v>1.005172967950644</v>
       </c>
       <c r="D18">
-        <v>1.024553748512278</v>
+        <v>1.023740973772743</v>
       </c>
       <c r="E18">
-        <v>1.02016617516306</v>
+        <v>1.020076894632044</v>
       </c>
       <c r="F18">
-        <v>1.030460472280203</v>
+        <v>1.030301886405847</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047012454844</v>
+        <v>1.046687936666662</v>
       </c>
       <c r="J18">
-        <v>1.032438731188722</v>
+        <v>1.032041961250419</v>
       </c>
       <c r="K18">
-        <v>1.037961697142707</v>
+        <v>1.037162115089722</v>
       </c>
       <c r="L18">
-        <v>1.033645662269035</v>
+        <v>1.03355784565297</v>
       </c>
       <c r="M18">
-        <v>1.043773346461368</v>
+        <v>1.043617294922883</v>
       </c>
       <c r="N18">
-        <v>1.014562501329185</v>
+        <v>1.015656937588951</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044106597061447</v>
+        <v>1.043983213089204</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037980702765526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037430837082882</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022185489695901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005556477749996</v>
+        <v>1.005159431901116</v>
       </c>
       <c r="D19">
-        <v>1.02448900947923</v>
+        <v>1.023692530880642</v>
       </c>
       <c r="E19">
-        <v>1.01945753416226</v>
+        <v>1.019381062241671</v>
       </c>
       <c r="F19">
-        <v>1.029669829723594</v>
+        <v>1.029518815853151</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046874288222148</v>
+        <v>1.046560071690428</v>
       </c>
       <c r="J19">
-        <v>1.032277789090638</v>
+        <v>1.031895432851252</v>
       </c>
       <c r="K19">
-        <v>1.037835656748216</v>
+        <v>1.037052039217642</v>
       </c>
       <c r="L19">
-        <v>1.032885860493758</v>
+        <v>1.032810637984149</v>
       </c>
       <c r="M19">
-        <v>1.042933442497964</v>
+        <v>1.042784833816336</v>
       </c>
       <c r="N19">
-        <v>1.014474504789889</v>
+        <v>1.015583120543488</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04311795173049</v>
+        <v>1.043000414387096</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037897969662875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037360016747444</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022138739521052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003593225853784</v>
+        <v>1.003348678141223</v>
       </c>
       <c r="D20">
-        <v>1.023133115570523</v>
+        <v>1.022496453037742</v>
       </c>
       <c r="E20">
-        <v>1.016584949210258</v>
+        <v>1.016574609974098</v>
       </c>
       <c r="F20">
-        <v>1.026785967052837</v>
+        <v>1.026696537556655</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04614495117549</v>
+        <v>1.045919470652037</v>
       </c>
       <c r="J20">
-        <v>1.03098633393016</v>
+        <v>1.030751121382619</v>
       </c>
       <c r="K20">
-        <v>1.036781038079386</v>
+        <v>1.036154936677177</v>
       </c>
       <c r="L20">
-        <v>1.030342309163164</v>
+        <v>1.030332144161287</v>
       </c>
       <c r="M20">
-        <v>1.040373620620654</v>
+        <v>1.040285660048965</v>
       </c>
       <c r="N20">
-        <v>1.013982470150645</v>
+        <v>1.015301132020818</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04056618764478</v>
+        <v>1.040496576188713</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037156229853475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036730037468262</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021915123182604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9989400778569807</v>
+        <v>0.9990976559637255</v>
       </c>
       <c r="D21">
-        <v>1.020106147795945</v>
+        <v>1.019861877363239</v>
       </c>
       <c r="E21">
-        <v>1.012449809587346</v>
+        <v>1.012594891498136</v>
       </c>
       <c r="F21">
-        <v>1.022966073521773</v>
+        <v>1.023033861728651</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044905998878758</v>
+        <v>1.044901562962117</v>
       </c>
       <c r="J21">
-        <v>1.028482180919215</v>
+        <v>1.028633152315362</v>
       </c>
       <c r="K21">
-        <v>1.034716359054891</v>
+        <v>1.034476483747839</v>
       </c>
       <c r="L21">
-        <v>1.027199093890295</v>
+        <v>1.027341515010707</v>
       </c>
       <c r="M21">
-        <v>1.037525029264453</v>
+        <v>1.037591607087081</v>
       </c>
       <c r="N21">
-        <v>1.013120774173974</v>
+        <v>1.015148314782737</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038270930548687</v>
+        <v>1.038323622593056</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.0356996531312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035546865873696</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021571895146489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9959715815301757</v>
+        <v>0.9963848181530062</v>
       </c>
       <c r="D22">
-        <v>1.018178168033724</v>
+        <v>1.018183723534213</v>
       </c>
       <c r="E22">
-        <v>1.009888409807736</v>
+        <v>1.010135009938867</v>
       </c>
       <c r="F22">
-        <v>1.02061219700536</v>
+        <v>1.02078061496738</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04411432998164</v>
+        <v>1.044250704633424</v>
       </c>
       <c r="J22">
-        <v>1.026889609797908</v>
+        <v>1.027284509271649</v>
       </c>
       <c r="K22">
-        <v>1.033397913168102</v>
+        <v>1.033403363689164</v>
       </c>
       <c r="L22">
-        <v>1.025266488012581</v>
+        <v>1.025508328990298</v>
       </c>
       <c r="M22">
-        <v>1.035786090471002</v>
+        <v>1.035951346377339</v>
       </c>
       <c r="N22">
-        <v>1.012573348158877</v>
+        <v>1.015044269443135</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036894671485887</v>
+        <v>1.037025461102155</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034753966994483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034773337373717</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021350695655805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9975390771788548</v>
+        <v>0.997802392636318</v>
       </c>
       <c r="D23">
-        <v>1.019189083679116</v>
+        <v>1.019051414813309</v>
       </c>
       <c r="E23">
-        <v>1.011244232278625</v>
+        <v>1.011430041319676</v>
       </c>
       <c r="F23">
-        <v>1.021858457006643</v>
+        <v>1.021967763888134</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044528406175063</v>
+        <v>1.044582959360131</v>
       </c>
       <c r="J23">
-        <v>1.027725728015858</v>
+        <v>1.02797770238357</v>
       </c>
       <c r="K23">
-        <v>1.034085512400958</v>
+        <v>1.033950378894519</v>
       </c>
       <c r="L23">
-        <v>1.026288451617558</v>
+        <v>1.026470769598006</v>
       </c>
       <c r="M23">
-        <v>1.036705901411373</v>
+        <v>1.036813209558154</v>
       </c>
       <c r="N23">
-        <v>1.01285898834112</v>
+        <v>1.015051972496438</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037622643466763</v>
+        <v>1.037707571005889</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035230502275442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035149531327364</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021460599272359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003604577926998</v>
+        <v>1.003360936184118</v>
       </c>
       <c r="D24">
-        <v>1.023123510810934</v>
+        <v>1.022487766671432</v>
       </c>
       <c r="E24">
-        <v>1.016508710356172</v>
+        <v>1.016499816233192</v>
       </c>
       <c r="F24">
-        <v>1.026696712202293</v>
+        <v>1.02660803101019</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046122859828225</v>
+        <v>1.045898224517775</v>
       </c>
       <c r="J24">
-        <v>1.030964575164618</v>
+        <v>1.030730220644538</v>
       </c>
       <c r="K24">
-        <v>1.036756366079157</v>
+        <v>1.036131154570193</v>
       </c>
       <c r="L24">
-        <v>1.030251986993037</v>
+        <v>1.030243242588004</v>
       </c>
       <c r="M24">
-        <v>1.040270680861637</v>
+        <v>1.04018345476302</v>
       </c>
       <c r="N24">
-        <v>1.013968489379542</v>
+        <v>1.015286878971793</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040443933151122</v>
+        <v>1.040374899533731</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037111427663098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036683190435273</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021904511791562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010399051409699</v>
+        <v>1.009792009122477</v>
       </c>
       <c r="D25">
-        <v>1.027552911962993</v>
+        <v>1.026510627407059</v>
       </c>
       <c r="E25">
-        <v>1.022455683049061</v>
+        <v>1.022322968430385</v>
       </c>
       <c r="F25">
-        <v>1.03216144124427</v>
+        <v>1.031933615937913</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047875809347037</v>
+        <v>1.047439083362545</v>
       </c>
       <c r="J25">
-        <v>1.034581443530582</v>
+        <v>1.033994267815104</v>
       </c>
       <c r="K25">
-        <v>1.039738047965944</v>
+        <v>1.038710881455867</v>
       </c>
       <c r="L25">
-        <v>1.034715125122689</v>
+        <v>1.034584357747057</v>
       </c>
       <c r="M25">
-        <v>1.044280195146578</v>
+        <v>1.044055633839958</v>
       </c>
       <c r="N25">
-        <v>1.015207441506151</v>
+        <v>1.016123422152509</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043617188164787</v>
+        <v>1.043439463689577</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039216764514025</v>
+        <v>1.038504016533345</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022437317026534</v>
       </c>
     </row>
   </sheetData>
